--- a/tools/DC26-Wrench_Fox-bitmaps.xlsx
+++ b/tools/DC26-Wrench_Fox-bitmaps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F73788-9377-423D-BB69-80791836EFD0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B07FD4-14D6-4B27-8F94-4D357D9E25EE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,7 +240,21 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -569,9 +583,63 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="9" t="str">
+        <f>"0x"&amp;BIN2HEX(A8&amp;A7&amp;A6&amp;A5&amp;A4&amp;A3, 2)</f>
+        <v>0x00</v>
+      </c>
+      <c r="B10" s="9" t="str">
+        <f>"0x"&amp;BIN2HEX(B8&amp;B7&amp;B6&amp;B5&amp;B4&amp;B3, 2)</f>
+        <v>0x00</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -583,7 +651,7 @@
       </c>
       <c r="J10" s="1" t="str">
         <f>"'"&amp;CHAR(I10)&amp;"':bytearray("&amp;IF(A10&lt;&gt;"","[","")&amp;LOWER(IF(A10&lt;&gt;"",A10,"")&amp;IF(B10&lt;&gt;"",","&amp;B10,"")&amp;IF(C10&lt;&gt;"",","&amp;C10,"")&amp;IF(D10&lt;&gt;"",","&amp;D10,"")&amp;IF(E10&lt;&gt;"",","&amp;E10,"")&amp;IF(F10&lt;&gt;"",","&amp;F10,""))&amp;IF(A10&lt;&gt;"","]","")&amp;"),"</f>
-        <v>' ':bytearray(),</v>
+        <v>' ':bytearray([0x00,0x00]),</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8580,8 +8648,13 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A21:H26 A48:H53 A156:H161 A165:H170 A192:H197 A201:H206 A219:H224 A300:H305 A309:H314 A318:H323 A327:H332 A345:H350 A354:H359 A381:H386 A390:H395 A399:H404 A417:H422 A426:H431 A435:H440 A444:H449 A408:H413 A453:H458 A462:H467 A480:H485 A525:H530 A516:H521 A534:H539 A588:H593 A597:H602 A651:H656 A660:H665 A669:H674 A678:H683 A759:H764 A741:H746 A552:H557 A606:H611 A615:H620 A624:H629 A642:H647 A633:H638 A687:H692 A696:H701 A705:H710 A723:H728 A732:H737 A750:H755 A768:H773 A777:H782 A795:H800 A804:H809 A813:H818 A822:H827 A786:H791 A840:H845 A831:H836 A849:H854 A12:H17 A30:H35 A75:H80 A84:H89 A66:H71 A102:H107 A111:H116 A129:H134 A147:H152 A174:H179 A183:H188 A210:H215 A228:H233 A237:H242 A246:H251 A3:H8 A39:H44 A57:H62 J57 A93:H98 A714:H719 C828 A846 C45 A120:H125 A138:H143 A543:H548 A255:H260 A264:H269 A273:H278 A282:H287 B297:C297 A291:H296 A561:H566 A570:H575 A579:H584 A336:H341 A363:H368 A372:H377 D450 A471:H476 A489:H494 A498:H503 A507:H512">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="A21:H26 A48:H53 A156:H161 A165:H170 A192:H197 A201:H206 A219:H224 A300:H305 A309:H314 A318:H323 A327:H332 A345:H350 A354:H359 A381:H386 A390:H395 A399:H404 A417:H422 A426:H431 A435:H440 A444:H449 A408:H413 A453:H458 A462:H467 A480:H485 A525:H530 A516:H521 A534:H539 A588:H593 A597:H602 A651:H656 A660:H665 A669:H674 A678:H683 A759:H764 A741:H746 A552:H557 A606:H611 A615:H620 A624:H629 A642:H647 A633:H638 A687:H692 A696:H701 A705:H710 A723:H728 A732:H737 A750:H755 A768:H773 A777:H782 A795:H800 A804:H809 A813:H818 A822:H827 A786:H791 A840:H845 A831:H836 A849:H854 A12:H17 A30:H35 A75:H80 A84:H89 A66:H71 A102:H107 A111:H116 A129:H134 A147:H152 A174:H179 A183:H188 A210:H215 A228:H233 A237:H242 A246:H251 C3:H8 A39:H44 A57:H62 J57 A93:H98 A714:H719 C828 A846 C45 A120:H125 A138:H143 A543:H548 A255:H260 A264:H269 A273:H278 A282:H287 B297:C297 A291:H296 A561:H566 A570:H575 A579:H584 A336:H341 A363:H368 A372:H377 D450 A471:H476 A489:H494 A498:H503 A507:H512">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:B8">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8619,9 +8692,6 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -8630,9 +8700,6 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -8641,9 +8708,6 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -8652,9 +8716,6 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -8663,18 +8724,12 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
         <v>0</v>
       </c>
     </row>
@@ -8687,10 +8742,7 @@
         <f>"0x"&amp;BIN2HEX(B8&amp;B7&amp;B6&amp;B5&amp;B4&amp;B3, 2)</f>
         <v>0x00</v>
       </c>
-      <c r="C10" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(C8&amp;C7&amp;C6&amp;C5&amp;C4&amp;C3, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -8699,7 +8751,7 @@
       </c>
       <c r="H10" s="1" t="str">
         <f>"'"&amp;CHAR(G10)&amp;"':bytearray("&amp;IF(A10&lt;&gt;"","[","")&amp;LOWER(IF(A10&lt;&gt;"",A10,"")&amp;IF(B10&lt;&gt;"",","&amp;B10,"")&amp;IF(C10&lt;&gt;"",","&amp;C10,"")&amp;IF(D10&lt;&gt;"",","&amp;D10,"")&amp;IF(E10&lt;&gt;"",","&amp;E10,"")&amp;IF(F10&lt;&gt;"",","&amp;F10,""))&amp;IF(A10&lt;&gt;"","]","")&amp;"),"</f>
-        <v>' ':bytearray([0x00,0x00,0x00]),</v>
+        <v>' ':bytearray([0x00,0x00]),</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8999,9 +9051,6 @@
       <c r="B111">
         <v>0</v>
       </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
     </row>
     <row r="112" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -9010,9 +9059,6 @@
       <c r="B112">
         <v>0</v>
       </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
     </row>
     <row r="113" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113">
@@ -9021,9 +9067,6 @@
       <c r="B113">
         <v>0</v>
       </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
     </row>
     <row r="114" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114">
@@ -9032,9 +9075,6 @@
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
     </row>
     <row r="115" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115">
@@ -9043,18 +9083,12 @@
       <c r="B115">
         <v>1</v>
       </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
     </row>
     <row r="116" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>0</v>
       </c>
       <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
         <v>0</v>
       </c>
     </row>
@@ -9067,10 +9101,7 @@
         <f>"0x"&amp;BIN2HEX(B116&amp;B115&amp;B114&amp;B113&amp;B112&amp;B111, 2)</f>
         <v>0x18</v>
       </c>
-      <c r="C118" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(C116&amp;C115&amp;C114&amp;C113&amp;C112&amp;C111, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
@@ -9080,7 +9111,7 @@
       </c>
       <c r="H118" s="1" t="str">
         <f t="shared" ref="H118" si="11">"'"&amp;CHAR(G118)&amp;"':bytearray("&amp;IF(A118&lt;&gt;"","[","")&amp;LOWER(IF(A118&lt;&gt;"",A118,"")&amp;IF(B118&lt;&gt;"",","&amp;B118,"")&amp;IF(C118&lt;&gt;"",","&amp;C118,"")&amp;IF(D118&lt;&gt;"",","&amp;D118,"")&amp;IF(E118&lt;&gt;"",","&amp;E118,"")&amp;IF(F118&lt;&gt;"",","&amp;F118,""))&amp;IF(A118&lt;&gt;"","]","")&amp;"),"</f>
-        <v>',':bytearray([0x10,0x18,0x00]),</v>
+        <v>',':bytearray([0x10,0x18]),</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9112,9 +9143,6 @@
       <c r="B129">
         <v>0</v>
       </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
     </row>
     <row r="130" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -9123,9 +9151,6 @@
       <c r="B130">
         <v>0</v>
       </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
     </row>
     <row r="131" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131">
@@ -9134,9 +9159,6 @@
       <c r="B131">
         <v>0</v>
       </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
     </row>
     <row r="132" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132">
@@ -9145,9 +9167,6 @@
       <c r="B132">
         <v>0</v>
       </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
     </row>
     <row r="133" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133">
@@ -9156,18 +9175,12 @@
       <c r="B133">
         <v>1</v>
       </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
     </row>
     <row r="134" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0</v>
       </c>
       <c r="B134">
-        <v>0</v>
-      </c>
-      <c r="C134">
         <v>0</v>
       </c>
     </row>
@@ -9180,10 +9193,7 @@
         <f>"0x"&amp;BIN2HEX(B134&amp;B133&amp;B132&amp;B131&amp;B130&amp;B129, 2)</f>
         <v>0x10</v>
       </c>
-      <c r="C136" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(C134&amp;C133&amp;C132&amp;C131&amp;C130&amp;C129, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
@@ -9193,7 +9203,7 @@
       </c>
       <c r="H136" s="1" t="str">
         <f t="shared" ref="H136" si="13">"'"&amp;CHAR(G136)&amp;"':bytearray("&amp;IF(A136&lt;&gt;"","[","")&amp;LOWER(IF(A136&lt;&gt;"",A136,"")&amp;IF(B136&lt;&gt;"",","&amp;B136,"")&amp;IF(C136&lt;&gt;"",","&amp;C136,"")&amp;IF(D136&lt;&gt;"",","&amp;D136,"")&amp;IF(E136&lt;&gt;"",","&amp;E136,"")&amp;IF(F136&lt;&gt;"",","&amp;F136,""))&amp;IF(A136&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'.':bytearray([0x10,0x10,0x00]),</v>
+        <v>'.':bytearray([0x10,0x10]),</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9442,47 +9452,29 @@
       <c r="A237">
         <v>0</v>
       </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
     </row>
     <row r="238" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
-      <c r="B238">
-        <v>0</v>
-      </c>
     </row>
     <row r="239" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>0</v>
       </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
     </row>
     <row r="240" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
     </row>
     <row r="241" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>0</v>
       </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
     </row>
     <row r="242" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>0</v>
-      </c>
-      <c r="B242">
         <v>0</v>
       </c>
     </row>
@@ -9491,10 +9483,7 @@
         <f>"0x"&amp;BIN2HEX(A242&amp;A241&amp;A240&amp;A239&amp;A238&amp;A237, 2)</f>
         <v>0x0A</v>
       </c>
-      <c r="B244" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(B242&amp;B241&amp;B240&amp;B239&amp;B238&amp;B237, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="B244" s="9"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
@@ -9505,7 +9494,7 @@
       </c>
       <c r="H244" s="1" t="str">
         <f t="shared" ref="H244" si="25">"'"&amp;CHAR(G244)&amp;"':bytearray("&amp;IF(A244&lt;&gt;"","[","")&amp;LOWER(IF(A244&lt;&gt;"",A244,"")&amp;IF(B244&lt;&gt;"",","&amp;B244,"")&amp;IF(C244&lt;&gt;"",","&amp;C244,"")&amp;IF(D244&lt;&gt;"",","&amp;D244,"")&amp;IF(E244&lt;&gt;"",","&amp;E244,"")&amp;IF(F244&lt;&gt;"",","&amp;F244,""))&amp;IF(A244&lt;&gt;"","]","")&amp;"),"</f>
-        <v>':':bytearray([0x0a,0x00]),</v>
+        <v>':':bytearray([0x0a]),</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9515,9 +9504,6 @@
       <c r="B246">
         <v>0</v>
       </c>
-      <c r="C246">
-        <v>0</v>
-      </c>
     </row>
     <row r="247" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247">
@@ -9526,9 +9512,6 @@
       <c r="B247">
         <v>1</v>
       </c>
-      <c r="C247">
-        <v>0</v>
-      </c>
     </row>
     <row r="248" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248">
@@ -9537,9 +9520,6 @@
       <c r="B248">
         <v>0</v>
       </c>
-      <c r="C248">
-        <v>0</v>
-      </c>
     </row>
     <row r="249" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249">
@@ -9548,9 +9528,6 @@
       <c r="B249">
         <v>1</v>
       </c>
-      <c r="C249">
-        <v>0</v>
-      </c>
     </row>
     <row r="250" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250">
@@ -9559,18 +9536,12 @@
       <c r="B250">
         <v>0</v>
       </c>
-      <c r="C250">
-        <v>0</v>
-      </c>
     </row>
     <row r="251" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>0</v>
       </c>
       <c r="B251">
-        <v>0</v>
-      </c>
-      <c r="C251">
         <v>0</v>
       </c>
     </row>
@@ -9583,10 +9554,7 @@
         <f>"0x"&amp;BIN2HEX(B251&amp;B250&amp;B249&amp;B248&amp;B247&amp;B246, 2)</f>
         <v>0x0A</v>
       </c>
-      <c r="C253" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(C251&amp;C250&amp;C249&amp;C248&amp;C247&amp;C246, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="C253" s="9"/>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
@@ -9596,7 +9564,7 @@
       </c>
       <c r="H253" s="1" t="str">
         <f t="shared" ref="H253" si="26">"'"&amp;CHAR(G253)&amp;"':bytearray("&amp;IF(A253&lt;&gt;"","[","")&amp;LOWER(IF(A253&lt;&gt;"",A253,"")&amp;IF(B253&lt;&gt;"",","&amp;B253,"")&amp;IF(C253&lt;&gt;"",","&amp;C253,"")&amp;IF(D253&lt;&gt;"",","&amp;D253,"")&amp;IF(E253&lt;&gt;"",","&amp;E253,"")&amp;IF(F253&lt;&gt;"",","&amp;F253,""))&amp;IF(A253&lt;&gt;"","]","")&amp;"),"</f>
-        <v>';':bytearray([0x10,0x0a,0x00]),</v>
+        <v>';':bytearray([0x10,0x0a]),</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9675,9 +9643,6 @@
       <c r="C282">
         <v>0</v>
       </c>
-      <c r="D282">
-        <v>0</v>
-      </c>
     </row>
     <row r="283" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283">
@@ -9689,9 +9654,6 @@
       <c r="C283">
         <v>1</v>
       </c>
-      <c r="D283">
-        <v>0</v>
-      </c>
     </row>
     <row r="284" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284">
@@ -9703,9 +9665,6 @@
       <c r="C284">
         <v>0</v>
       </c>
-      <c r="D284">
-        <v>0</v>
-      </c>
     </row>
     <row r="285" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285">
@@ -9717,9 +9676,6 @@
       <c r="C285">
         <v>0</v>
       </c>
-      <c r="D285">
-        <v>0</v>
-      </c>
     </row>
     <row r="286" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286">
@@ -9731,9 +9687,6 @@
       <c r="C286">
         <v>0</v>
       </c>
-      <c r="D286">
-        <v>0</v>
-      </c>
     </row>
     <row r="287" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287">
@@ -9743,9 +9696,6 @@
         <v>0</v>
       </c>
       <c r="C287">
-        <v>0</v>
-      </c>
-      <c r="D287">
         <v>0</v>
       </c>
     </row>
@@ -9762,10 +9712,7 @@
         <f>"0x"&amp;BIN2HEX(C287&amp;C286&amp;C285&amp;C284&amp;C283&amp;C282, 2)</f>
         <v>0x02</v>
       </c>
-      <c r="D289" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D287&amp;D286&amp;D285&amp;D284&amp;D283&amp;D282, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D289" s="9"/>
       <c r="E289" s="9"/>
       <c r="F289" s="9"/>
       <c r="G289">
@@ -9774,7 +9721,7 @@
       </c>
       <c r="H289" s="1" t="str">
         <f t="shared" ref="H289" si="30">"'"&amp;CHAR(G289)&amp;"':bytearray("&amp;IF(A289&lt;&gt;"","[","")&amp;LOWER(IF(A289&lt;&gt;"",A289,"")&amp;IF(B289&lt;&gt;"",","&amp;B289,"")&amp;IF(C289&lt;&gt;"",","&amp;C289,"")&amp;IF(D289&lt;&gt;"",","&amp;D289,"")&amp;IF(E289&lt;&gt;"",","&amp;E289,"")&amp;IF(F289&lt;&gt;"",","&amp;F289,""))&amp;IF(A289&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'?':bytearray([0x01,0x15,0x02,0x00]),</v>
+        <v>'?':bytearray([0x01,0x15,0x02]),</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9812,9 +9759,6 @@
       <c r="D300">
         <v>0</v>
       </c>
-      <c r="E300">
-        <v>0</v>
-      </c>
     </row>
     <row r="301" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301">
@@ -9829,9 +9773,6 @@
       <c r="D301">
         <v>1</v>
       </c>
-      <c r="E301">
-        <v>0</v>
-      </c>
     </row>
     <row r="302" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302">
@@ -9846,9 +9787,6 @@
       <c r="D302">
         <v>1</v>
       </c>
-      <c r="E302">
-        <v>0</v>
-      </c>
     </row>
     <row r="303" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303">
@@ -9863,9 +9801,6 @@
       <c r="D303">
         <v>1</v>
       </c>
-      <c r="E303">
-        <v>0</v>
-      </c>
     </row>
     <row r="304" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304">
@@ -9880,9 +9815,6 @@
       <c r="D304">
         <v>1</v>
       </c>
-      <c r="E304">
-        <v>0</v>
-      </c>
     </row>
     <row r="305" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305">
@@ -9895,9 +9827,6 @@
         <v>0</v>
       </c>
       <c r="D305">
-        <v>0</v>
-      </c>
-      <c r="E305">
         <v>0</v>
       </c>
     </row>
@@ -9918,10 +9847,7 @@
         <f>"0x"&amp;BIN2HEX(D305&amp;D304&amp;D303&amp;D302&amp;D301&amp;D300, 2)</f>
         <v>0x1E</v>
       </c>
-      <c r="E307" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E305&amp;E304&amp;E303&amp;E302&amp;E301&amp;E300, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E307" s="9"/>
       <c r="F307" s="9"/>
       <c r="G307">
         <f>G298+1</f>
@@ -9929,7 +9855,7 @@
       </c>
       <c r="H307" s="1" t="str">
         <f t="shared" ref="H307" si="32">"'"&amp;CHAR(G307)&amp;"':bytearray("&amp;IF(A307&lt;&gt;"","[","")&amp;LOWER(IF(A307&lt;&gt;"",A307,"")&amp;IF(B307&lt;&gt;"",","&amp;B307,"")&amp;IF(C307&lt;&gt;"",","&amp;C307,"")&amp;IF(D307&lt;&gt;"",","&amp;D307,"")&amp;IF(E307&lt;&gt;"",","&amp;E307,"")&amp;IF(F307&lt;&gt;"",","&amp;F307,""))&amp;IF(A307&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'A':bytearray([0x1e,0x05,0x05,0x1e,0x00]),</v>
+        <v>'A':bytearray([0x1e,0x05,0x05,0x1e]),</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9945,9 +9871,6 @@
       <c r="D309">
         <v>0</v>
       </c>
-      <c r="E309">
-        <v>0</v>
-      </c>
     </row>
     <row r="310" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310">
@@ -9962,9 +9885,6 @@
       <c r="D310">
         <v>1</v>
       </c>
-      <c r="E310">
-        <v>0</v>
-      </c>
     </row>
     <row r="311" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311">
@@ -9979,9 +9899,6 @@
       <c r="D311">
         <v>1</v>
       </c>
-      <c r="E311">
-        <v>0</v>
-      </c>
     </row>
     <row r="312" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312">
@@ -9996,9 +9913,6 @@
       <c r="D312">
         <v>1</v>
       </c>
-      <c r="E312">
-        <v>0</v>
-      </c>
     </row>
     <row r="313" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313">
@@ -10013,9 +9927,6 @@
       <c r="D313">
         <v>0</v>
       </c>
-      <c r="E313">
-        <v>0</v>
-      </c>
     </row>
     <row r="314" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314">
@@ -10028,9 +9939,6 @@
         <v>0</v>
       </c>
       <c r="D314">
-        <v>0</v>
-      </c>
-      <c r="E314">
         <v>0</v>
       </c>
     </row>
@@ -10051,10 +9959,7 @@
         <f>"0x"&amp;BIN2HEX(D314&amp;D313&amp;D312&amp;D311&amp;D310&amp;D309, 2)</f>
         <v>0x0E</v>
       </c>
-      <c r="E316" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E314&amp;E313&amp;E312&amp;E311&amp;E310&amp;E309, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E316" s="9"/>
       <c r="F316" s="9"/>
       <c r="G316">
         <f>G307+1</f>
@@ -10062,7 +9967,7 @@
       </c>
       <c r="H316" s="1" t="str">
         <f t="shared" ref="H316" si="33">"'"&amp;CHAR(G316)&amp;"':bytearray("&amp;IF(A316&lt;&gt;"","[","")&amp;LOWER(IF(A316&lt;&gt;"",A316,"")&amp;IF(B316&lt;&gt;"",","&amp;B316,"")&amp;IF(C316&lt;&gt;"",","&amp;C316,"")&amp;IF(D316&lt;&gt;"",","&amp;D316,"")&amp;IF(E316&lt;&gt;"",","&amp;E316,"")&amp;IF(F316&lt;&gt;"",","&amp;F316,""))&amp;IF(A316&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'B':bytearray([0x1f,0x15,0x15,0x0e,0x00]),</v>
+        <v>'B':bytearray([0x1f,0x15,0x15,0x0e]),</v>
       </c>
     </row>
     <row r="318" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10078,9 +9983,6 @@
       <c r="D318">
         <v>1</v>
       </c>
-      <c r="E318">
-        <v>0</v>
-      </c>
     </row>
     <row r="319" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319">
@@ -10095,9 +9997,6 @@
       <c r="D319">
         <v>0</v>
       </c>
-      <c r="E319">
-        <v>0</v>
-      </c>
     </row>
     <row r="320" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320">
@@ -10112,9 +10011,6 @@
       <c r="D320">
         <v>0</v>
       </c>
-      <c r="E320">
-        <v>0</v>
-      </c>
     </row>
     <row r="321" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321">
@@ -10129,9 +10025,6 @@
       <c r="D321">
         <v>0</v>
       </c>
-      <c r="E321">
-        <v>0</v>
-      </c>
     </row>
     <row r="322" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322">
@@ -10146,9 +10039,6 @@
       <c r="D322">
         <v>1</v>
       </c>
-      <c r="E322">
-        <v>0</v>
-      </c>
     </row>
     <row r="323" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323">
@@ -10161,9 +10051,6 @@
         <v>0</v>
       </c>
       <c r="D323">
-        <v>0</v>
-      </c>
-      <c r="E323">
         <v>0</v>
       </c>
     </row>
@@ -10184,10 +10071,7 @@
         <f>"0x"&amp;BIN2HEX(D323&amp;D322&amp;D321&amp;D320&amp;D319&amp;D318, 2)</f>
         <v>0x11</v>
       </c>
-      <c r="E325" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E323&amp;E322&amp;E321&amp;E320&amp;E319&amp;E318, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E325" s="9"/>
       <c r="F325" s="9"/>
       <c r="G325">
         <f>G316+1</f>
@@ -10195,7 +10079,7 @@
       </c>
       <c r="H325" s="1" t="str">
         <f t="shared" ref="H325" si="34">"'"&amp;CHAR(G325)&amp;"':bytearray("&amp;IF(A325&lt;&gt;"","[","")&amp;LOWER(IF(A325&lt;&gt;"",A325,"")&amp;IF(B325&lt;&gt;"",","&amp;B325,"")&amp;IF(C325&lt;&gt;"",","&amp;C325,"")&amp;IF(D325&lt;&gt;"",","&amp;D325,"")&amp;IF(E325&lt;&gt;"",","&amp;E325,"")&amp;IF(F325&lt;&gt;"",","&amp;F325,""))&amp;IF(A325&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'C':bytearray([0x0e,0x11,0x11,0x11,0x00]),</v>
+        <v>'C':bytearray([0x0e,0x11,0x11,0x11]),</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10211,9 +10095,6 @@
       <c r="D327">
         <v>0</v>
       </c>
-      <c r="E327">
-        <v>0</v>
-      </c>
     </row>
     <row r="328" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328">
@@ -10228,9 +10109,6 @@
       <c r="D328">
         <v>1</v>
       </c>
-      <c r="E328">
-        <v>0</v>
-      </c>
     </row>
     <row r="329" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329">
@@ -10245,9 +10123,6 @@
       <c r="D329">
         <v>1</v>
       </c>
-      <c r="E329">
-        <v>0</v>
-      </c>
     </row>
     <row r="330" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330">
@@ -10262,9 +10137,6 @@
       <c r="D330">
         <v>1</v>
       </c>
-      <c r="E330">
-        <v>0</v>
-      </c>
     </row>
     <row r="331" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331">
@@ -10279,9 +10151,6 @@
       <c r="D331">
         <v>0</v>
       </c>
-      <c r="E331">
-        <v>0</v>
-      </c>
     </row>
     <row r="332" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332">
@@ -10294,9 +10163,6 @@
         <v>0</v>
       </c>
       <c r="D332">
-        <v>0</v>
-      </c>
-      <c r="E332">
         <v>0</v>
       </c>
     </row>
@@ -10317,10 +10183,7 @@
         <f>"0x"&amp;BIN2HEX(D332&amp;D331&amp;D330&amp;D329&amp;D328&amp;D327, 2)</f>
         <v>0x0E</v>
       </c>
-      <c r="E334" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E332&amp;E331&amp;E330&amp;E329&amp;E328&amp;E327, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E334" s="9"/>
       <c r="F334" s="9"/>
       <c r="G334">
         <f>G325+1</f>
@@ -10328,7 +10191,7 @@
       </c>
       <c r="H334" s="1" t="str">
         <f t="shared" ref="H334" si="35">"'"&amp;CHAR(G334)&amp;"':bytearray("&amp;IF(A334&lt;&gt;"","[","")&amp;LOWER(IF(A334&lt;&gt;"",A334,"")&amp;IF(B334&lt;&gt;"",","&amp;B334,"")&amp;IF(C334&lt;&gt;"",","&amp;C334,"")&amp;IF(D334&lt;&gt;"",","&amp;D334,"")&amp;IF(E334&lt;&gt;"",","&amp;E334,"")&amp;IF(F334&lt;&gt;"",","&amp;F334,""))&amp;IF(A334&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'D':bytearray([0x1f,0x11,0x11,0x0e,0x00]),</v>
+        <v>'D':bytearray([0x1f,0x11,0x11,0x0e]),</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10344,9 +10207,6 @@
       <c r="D336">
         <v>1</v>
       </c>
-      <c r="E336">
-        <v>0</v>
-      </c>
     </row>
     <row r="337" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337">
@@ -10361,9 +10221,6 @@
       <c r="D337">
         <v>0</v>
       </c>
-      <c r="E337">
-        <v>0</v>
-      </c>
     </row>
     <row r="338" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338">
@@ -10378,9 +10235,6 @@
       <c r="D338">
         <v>0</v>
       </c>
-      <c r="E338">
-        <v>0</v>
-      </c>
     </row>
     <row r="339" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339">
@@ -10395,9 +10249,6 @@
       <c r="D339">
         <v>0</v>
       </c>
-      <c r="E339">
-        <v>0</v>
-      </c>
     </row>
     <row r="340" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340">
@@ -10412,9 +10263,6 @@
       <c r="D340">
         <v>1</v>
       </c>
-      <c r="E340">
-        <v>0</v>
-      </c>
     </row>
     <row r="341" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341">
@@ -10427,9 +10275,6 @@
         <v>0</v>
       </c>
       <c r="D341">
-        <v>0</v>
-      </c>
-      <c r="E341">
         <v>0</v>
       </c>
     </row>
@@ -10450,10 +10295,7 @@
         <f>"0x"&amp;BIN2HEX(D341&amp;D340&amp;D339&amp;D338&amp;D337&amp;D336, 2)</f>
         <v>0x11</v>
       </c>
-      <c r="E343" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E341&amp;E340&amp;E339&amp;E338&amp;E337&amp;E336, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E343" s="9"/>
       <c r="F343" s="9"/>
       <c r="G343">
         <f>G334+1</f>
@@ -10461,7 +10303,7 @@
       </c>
       <c r="H343" s="1" t="str">
         <f t="shared" ref="H343" si="36">"'"&amp;CHAR(G343)&amp;"':bytearray("&amp;IF(A343&lt;&gt;"","[","")&amp;LOWER(IF(A343&lt;&gt;"",A343,"")&amp;IF(B343&lt;&gt;"",","&amp;B343,"")&amp;IF(C343&lt;&gt;"",","&amp;C343,"")&amp;IF(D343&lt;&gt;"",","&amp;D343,"")&amp;IF(E343&lt;&gt;"",","&amp;E343,"")&amp;IF(F343&lt;&gt;"",","&amp;F343,""))&amp;IF(A343&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'E':bytearray([0x1f,0x15,0x15,0x11,0x00]),</v>
+        <v>'E':bytearray([0x1f,0x15,0x15,0x11]),</v>
       </c>
     </row>
     <row r="345" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10477,9 +10319,6 @@
       <c r="D345">
         <v>1</v>
       </c>
-      <c r="E345">
-        <v>0</v>
-      </c>
     </row>
     <row r="346" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346">
@@ -10494,9 +10333,6 @@
       <c r="D346">
         <v>0</v>
       </c>
-      <c r="E346">
-        <v>0</v>
-      </c>
     </row>
     <row r="347" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347">
@@ -10511,9 +10347,6 @@
       <c r="D347">
         <v>0</v>
       </c>
-      <c r="E347">
-        <v>0</v>
-      </c>
     </row>
     <row r="348" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348">
@@ -10528,9 +10361,6 @@
       <c r="D348">
         <v>0</v>
       </c>
-      <c r="E348">
-        <v>0</v>
-      </c>
     </row>
     <row r="349" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349">
@@ -10545,9 +10375,6 @@
       <c r="D349">
         <v>0</v>
       </c>
-      <c r="E349">
-        <v>0</v>
-      </c>
     </row>
     <row r="350" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350">
@@ -10560,9 +10387,6 @@
         <v>0</v>
       </c>
       <c r="D350">
-        <v>0</v>
-      </c>
-      <c r="E350">
         <v>0</v>
       </c>
     </row>
@@ -10583,10 +10407,7 @@
         <f>"0x"&amp;BIN2HEX(D350&amp;D349&amp;D348&amp;D347&amp;D346&amp;D345, 2)</f>
         <v>0x01</v>
       </c>
-      <c r="E352" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E350&amp;E349&amp;E348&amp;E347&amp;E346&amp;E345, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E352" s="9"/>
       <c r="F352" s="9"/>
       <c r="G352">
         <f>G343+1</f>
@@ -10594,7 +10415,7 @@
       </c>
       <c r="H352" s="1" t="str">
         <f t="shared" ref="H352" si="37">"'"&amp;CHAR(G352)&amp;"':bytearray("&amp;IF(A352&lt;&gt;"","[","")&amp;LOWER(IF(A352&lt;&gt;"",A352,"")&amp;IF(B352&lt;&gt;"",","&amp;B352,"")&amp;IF(C352&lt;&gt;"",","&amp;C352,"")&amp;IF(D352&lt;&gt;"",","&amp;D352,"")&amp;IF(E352&lt;&gt;"",","&amp;E352,"")&amp;IF(F352&lt;&gt;"",","&amp;F352,""))&amp;IF(A352&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'F':bytearray([0x1f,0x05,0x05,0x01,0x00]),</v>
+        <v>'F':bytearray([0x1f,0x05,0x05,0x01]),</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10610,9 +10431,6 @@
       <c r="D354">
         <v>1</v>
       </c>
-      <c r="E354">
-        <v>0</v>
-      </c>
     </row>
     <row r="355" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355">
@@ -10627,9 +10445,6 @@
       <c r="D355">
         <v>0</v>
       </c>
-      <c r="E355">
-        <v>0</v>
-      </c>
     </row>
     <row r="356" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356">
@@ -10644,9 +10459,6 @@
       <c r="D356">
         <v>1</v>
       </c>
-      <c r="E356">
-        <v>0</v>
-      </c>
     </row>
     <row r="357" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357">
@@ -10661,9 +10473,6 @@
       <c r="D357">
         <v>1</v>
       </c>
-      <c r="E357">
-        <v>0</v>
-      </c>
     </row>
     <row r="358" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358">
@@ -10678,9 +10487,6 @@
       <c r="D358">
         <v>1</v>
       </c>
-      <c r="E358">
-        <v>0</v>
-      </c>
     </row>
     <row r="359" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359">
@@ -10693,9 +10499,6 @@
         <v>0</v>
       </c>
       <c r="D359">
-        <v>0</v>
-      </c>
-      <c r="E359">
         <v>0</v>
       </c>
     </row>
@@ -10716,10 +10519,7 @@
         <f>"0x"&amp;BIN2HEX(D359&amp;D358&amp;D357&amp;D356&amp;D355&amp;D354, 2)</f>
         <v>0x1D</v>
       </c>
-      <c r="E361" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E359&amp;E358&amp;E357&amp;E356&amp;E355&amp;E354, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E361" s="9"/>
       <c r="F361" s="9"/>
       <c r="G361">
         <f>G352+1</f>
@@ -10727,7 +10527,7 @@
       </c>
       <c r="H361" s="1" t="str">
         <f t="shared" ref="H361" si="38">"'"&amp;CHAR(G361)&amp;"':bytearray("&amp;IF(A361&lt;&gt;"","[","")&amp;LOWER(IF(A361&lt;&gt;"",A361,"")&amp;IF(B361&lt;&gt;"",","&amp;B361,"")&amp;IF(C361&lt;&gt;"",","&amp;C361,"")&amp;IF(D361&lt;&gt;"",","&amp;D361,"")&amp;IF(E361&lt;&gt;"",","&amp;E361,"")&amp;IF(F361&lt;&gt;"",","&amp;F361,""))&amp;IF(A361&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'G':bytearray([0x1f,0x11,0x15,0x1d,0x00]),</v>
+        <v>'G':bytearray([0x1f,0x11,0x15,0x1d]),</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10743,9 +10543,6 @@
       <c r="D363">
         <v>1</v>
       </c>
-      <c r="E363">
-        <v>0</v>
-      </c>
     </row>
     <row r="364" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364">
@@ -10760,9 +10557,6 @@
       <c r="D364">
         <v>1</v>
       </c>
-      <c r="E364">
-        <v>0</v>
-      </c>
     </row>
     <row r="365" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365">
@@ -10777,9 +10571,6 @@
       <c r="D365">
         <v>1</v>
       </c>
-      <c r="E365">
-        <v>0</v>
-      </c>
     </row>
     <row r="366" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366">
@@ -10794,9 +10585,6 @@
       <c r="D366">
         <v>1</v>
       </c>
-      <c r="E366">
-        <v>0</v>
-      </c>
     </row>
     <row r="367" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367">
@@ -10811,9 +10599,6 @@
       <c r="D367">
         <v>1</v>
       </c>
-      <c r="E367">
-        <v>0</v>
-      </c>
     </row>
     <row r="368" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368">
@@ -10826,9 +10611,6 @@
         <v>0</v>
       </c>
       <c r="D368">
-        <v>0</v>
-      </c>
-      <c r="E368">
         <v>0</v>
       </c>
     </row>
@@ -10849,10 +10631,7 @@
         <f>"0x"&amp;BIN2HEX(D368&amp;D367&amp;D366&amp;D365&amp;D364&amp;D363, 2)</f>
         <v>0x1F</v>
       </c>
-      <c r="E370" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E368&amp;E367&amp;E366&amp;E365&amp;E364&amp;E363, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E370" s="9"/>
       <c r="F370" s="9"/>
       <c r="G370">
         <f>G361+1</f>
@@ -10860,7 +10639,7 @@
       </c>
       <c r="H370" s="1" t="str">
         <f t="shared" ref="H370" si="39">"'"&amp;CHAR(G370)&amp;"':bytearray("&amp;IF(A370&lt;&gt;"","[","")&amp;LOWER(IF(A370&lt;&gt;"",A370,"")&amp;IF(B370&lt;&gt;"",","&amp;B370,"")&amp;IF(C370&lt;&gt;"",","&amp;C370,"")&amp;IF(D370&lt;&gt;"",","&amp;D370,"")&amp;IF(E370&lt;&gt;"",","&amp;E370,"")&amp;IF(F370&lt;&gt;"",","&amp;F370,""))&amp;IF(A370&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'H':bytearray([0x1f,0x04,0x04,0x1f,0x00]),</v>
+        <v>'H':bytearray([0x1f,0x04,0x04,0x1f]),</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10873,9 +10652,6 @@
       <c r="C372">
         <v>1</v>
       </c>
-      <c r="D372">
-        <v>0</v>
-      </c>
     </row>
     <row r="373" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373">
@@ -10887,9 +10663,6 @@
       <c r="C373">
         <v>0</v>
       </c>
-      <c r="D373">
-        <v>0</v>
-      </c>
     </row>
     <row r="374" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374">
@@ -10901,9 +10674,6 @@
       <c r="C374">
         <v>0</v>
       </c>
-      <c r="D374">
-        <v>0</v>
-      </c>
     </row>
     <row r="375" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375">
@@ -10915,9 +10685,6 @@
       <c r="C375">
         <v>0</v>
       </c>
-      <c r="D375">
-        <v>0</v>
-      </c>
     </row>
     <row r="376" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376">
@@ -10929,9 +10696,6 @@
       <c r="C376">
         <v>1</v>
       </c>
-      <c r="D376">
-        <v>0</v>
-      </c>
     </row>
     <row r="377" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377">
@@ -10941,9 +10705,6 @@
         <v>0</v>
       </c>
       <c r="C377">
-        <v>0</v>
-      </c>
-      <c r="D377">
         <v>0</v>
       </c>
     </row>
@@ -10960,10 +10721,7 @@
         <f>"0x"&amp;BIN2HEX(C377&amp;C376&amp;C375&amp;C374&amp;C373&amp;C372, 2)</f>
         <v>0x11</v>
       </c>
-      <c r="D379" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D377&amp;D376&amp;D375&amp;D374&amp;D373&amp;D372, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D379" s="9"/>
       <c r="E379" s="9"/>
       <c r="F379" s="9"/>
       <c r="G379">
@@ -10972,7 +10730,7 @@
       </c>
       <c r="H379" s="1" t="str">
         <f t="shared" ref="H379" si="40">"'"&amp;CHAR(G379)&amp;"':bytearray("&amp;IF(A379&lt;&gt;"","[","")&amp;LOWER(IF(A379&lt;&gt;"",A379,"")&amp;IF(B379&lt;&gt;"",","&amp;B379,"")&amp;IF(C379&lt;&gt;"",","&amp;C379,"")&amp;IF(D379&lt;&gt;"",","&amp;D379,"")&amp;IF(E379&lt;&gt;"",","&amp;E379,"")&amp;IF(F379&lt;&gt;"",","&amp;F379,""))&amp;IF(A379&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'I':bytearray([0x11,0x1f,0x11,0x00]),</v>
+        <v>'I':bytearray([0x11,0x1f,0x11]),</v>
       </c>
     </row>
     <row r="381" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10988,9 +10746,6 @@
       <c r="D381">
         <v>1</v>
       </c>
-      <c r="E381">
-        <v>0</v>
-      </c>
     </row>
     <row r="382" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382">
@@ -11005,9 +10760,6 @@
       <c r="D382">
         <v>1</v>
       </c>
-      <c r="E382">
-        <v>0</v>
-      </c>
     </row>
     <row r="383" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383">
@@ -11022,9 +10774,6 @@
       <c r="D383">
         <v>1</v>
       </c>
-      <c r="E383">
-        <v>0</v>
-      </c>
     </row>
     <row r="384" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384">
@@ -11039,9 +10788,6 @@
       <c r="D384">
         <v>1</v>
       </c>
-      <c r="E384">
-        <v>0</v>
-      </c>
     </row>
     <row r="385" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385">
@@ -11056,9 +10802,6 @@
       <c r="D385">
         <v>1</v>
       </c>
-      <c r="E385">
-        <v>0</v>
-      </c>
     </row>
     <row r="386" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386">
@@ -11071,9 +10814,6 @@
         <v>0</v>
       </c>
       <c r="D386">
-        <v>0</v>
-      </c>
-      <c r="E386">
         <v>0</v>
       </c>
     </row>
@@ -11094,10 +10834,7 @@
         <f>"0x"&amp;BIN2HEX(D386&amp;D385&amp;D384&amp;D383&amp;D382&amp;D381, 2)</f>
         <v>0x1F</v>
       </c>
-      <c r="E388" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E386&amp;E385&amp;E384&amp;E383&amp;E382&amp;E381, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E388" s="9"/>
       <c r="F388" s="9"/>
       <c r="G388">
         <f>G379+1</f>
@@ -11105,7 +10842,7 @@
       </c>
       <c r="H388" s="1" t="str">
         <f t="shared" ref="H388" si="41">"'"&amp;CHAR(G388)&amp;"':bytearray("&amp;IF(A388&lt;&gt;"","[","")&amp;LOWER(IF(A388&lt;&gt;"",A388,"")&amp;IF(B388&lt;&gt;"",","&amp;B388,"")&amp;IF(C388&lt;&gt;"",","&amp;C388,"")&amp;IF(D388&lt;&gt;"",","&amp;D388,"")&amp;IF(E388&lt;&gt;"",","&amp;E388,"")&amp;IF(F388&lt;&gt;"",","&amp;F388,""))&amp;IF(A388&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'J':bytearray([0x18,0x11,0x11,0x1f,0x00]),</v>
+        <v>'J':bytearray([0x18,0x11,0x11,0x1f]),</v>
       </c>
     </row>
     <row r="390" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11121,9 +10858,6 @@
       <c r="D390">
         <v>0</v>
       </c>
-      <c r="E390">
-        <v>0</v>
-      </c>
     </row>
     <row r="391" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391">
@@ -11138,9 +10872,6 @@
       <c r="D391">
         <v>0</v>
       </c>
-      <c r="E391">
-        <v>0</v>
-      </c>
     </row>
     <row r="392" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392">
@@ -11155,9 +10886,6 @@
       <c r="D392">
         <v>1</v>
       </c>
-      <c r="E392">
-        <v>0</v>
-      </c>
     </row>
     <row r="393" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393">
@@ -11172,9 +10900,6 @@
       <c r="D393">
         <v>1</v>
       </c>
-      <c r="E393">
-        <v>0</v>
-      </c>
     </row>
     <row r="394" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394">
@@ -11189,9 +10914,6 @@
       <c r="D394">
         <v>1</v>
       </c>
-      <c r="E394">
-        <v>0</v>
-      </c>
     </row>
     <row r="395" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395">
@@ -11204,9 +10926,6 @@
         <v>0</v>
       </c>
       <c r="D395">
-        <v>0</v>
-      </c>
-      <c r="E395">
         <v>0</v>
       </c>
     </row>
@@ -11227,10 +10946,7 @@
         <f>"0x"&amp;BIN2HEX(D395&amp;D394&amp;D393&amp;D392&amp;D391&amp;D390, 2)</f>
         <v>0x1C</v>
       </c>
-      <c r="E397" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E395&amp;E394&amp;E393&amp;E392&amp;E391&amp;E390, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E397" s="9"/>
       <c r="F397" s="9"/>
       <c r="G397">
         <f>G388+1</f>
@@ -11238,7 +10954,7 @@
       </c>
       <c r="H397" s="1" t="str">
         <f t="shared" ref="H397" si="42">"'"&amp;CHAR(G397)&amp;"':bytearray("&amp;IF(A397&lt;&gt;"","[","")&amp;LOWER(IF(A397&lt;&gt;"",A397,"")&amp;IF(B397&lt;&gt;"",","&amp;B397,"")&amp;IF(C397&lt;&gt;"",","&amp;C397,"")&amp;IF(D397&lt;&gt;"",","&amp;D397,"")&amp;IF(E397&lt;&gt;"",","&amp;E397,"")&amp;IF(F397&lt;&gt;"",","&amp;F397,""))&amp;IF(A397&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'K':bytearray([0x1f,0x04,0x07,0x1c,0x00]),</v>
+        <v>'K':bytearray([0x1f,0x04,0x07,0x1c]),</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11369,9 +11085,6 @@
       <c r="E408">
         <v>1</v>
       </c>
-      <c r="F408">
-        <v>0</v>
-      </c>
     </row>
     <row r="409" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409">
@@ -11389,9 +11102,6 @@
       <c r="E409">
         <v>1</v>
       </c>
-      <c r="F409">
-        <v>0</v>
-      </c>
     </row>
     <row r="410" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410">
@@ -11409,9 +11119,6 @@
       <c r="E410">
         <v>1</v>
       </c>
-      <c r="F410">
-        <v>0</v>
-      </c>
     </row>
     <row r="411" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411">
@@ -11429,9 +11136,6 @@
       <c r="E411">
         <v>1</v>
       </c>
-      <c r="F411">
-        <v>0</v>
-      </c>
     </row>
     <row r="412" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412">
@@ -11449,9 +11153,6 @@
       <c r="E412">
         <v>1</v>
       </c>
-      <c r="F412">
-        <v>0</v>
-      </c>
     </row>
     <row r="413" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413">
@@ -11469,13 +11170,10 @@
       <c r="E413">
         <v>0</v>
       </c>
-      <c r="F413">
-        <v>0</v>
-      </c>
     </row>
     <row r="415" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="9" t="str">
-        <f t="shared" ref="A415:F415" si="43">"0x"&amp;BIN2HEX(A413&amp;A412&amp;A411&amp;A410&amp;A409&amp;A408, 2)</f>
+        <f t="shared" ref="A415:E415" si="43">"0x"&amp;BIN2HEX(A413&amp;A412&amp;A411&amp;A410&amp;A409&amp;A408, 2)</f>
         <v>0x1F</v>
       </c>
       <c r="B415" s="9" t="str">
@@ -11494,17 +11192,14 @@
         <f t="shared" si="43"/>
         <v>0x1F</v>
       </c>
-      <c r="F415" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v>0x00</v>
-      </c>
+      <c r="F415" s="9"/>
       <c r="G415">
         <f>G406+1</f>
         <v>77</v>
       </c>
       <c r="H415" s="1" t="str">
         <f t="shared" ref="H415" si="44">"'"&amp;CHAR(G415)&amp;"':bytearray("&amp;IF(A415&lt;&gt;"","[","")&amp;LOWER(IF(A415&lt;&gt;"",A415,"")&amp;IF(B415&lt;&gt;"",","&amp;B415,"")&amp;IF(C415&lt;&gt;"",","&amp;C415,"")&amp;IF(D415&lt;&gt;"",","&amp;D415,"")&amp;IF(E415&lt;&gt;"",","&amp;E415,"")&amp;IF(F415&lt;&gt;"",","&amp;F415,""))&amp;IF(A415&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'M':bytearray([0x1f,0x01,0x1f,0x01,0x1f,0x00]),</v>
+        <v>'M':bytearray([0x1f,0x01,0x1f,0x01,0x1f]),</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11520,9 +11215,6 @@
       <c r="D417">
         <v>1</v>
       </c>
-      <c r="E417">
-        <v>0</v>
-      </c>
     </row>
     <row r="418" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418">
@@ -11537,9 +11229,6 @@
       <c r="D418">
         <v>1</v>
       </c>
-      <c r="E418">
-        <v>0</v>
-      </c>
     </row>
     <row r="419" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419">
@@ -11554,9 +11243,6 @@
       <c r="D419">
         <v>1</v>
       </c>
-      <c r="E419">
-        <v>0</v>
-      </c>
     </row>
     <row r="420" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420">
@@ -11571,9 +11257,6 @@
       <c r="D420">
         <v>1</v>
       </c>
-      <c r="E420">
-        <v>0</v>
-      </c>
     </row>
     <row r="421" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421">
@@ -11588,9 +11271,6 @@
       <c r="D421">
         <v>1</v>
       </c>
-      <c r="E421">
-        <v>0</v>
-      </c>
     </row>
     <row r="422" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422">
@@ -11603,9 +11283,6 @@
         <v>0</v>
       </c>
       <c r="D422">
-        <v>0</v>
-      </c>
-      <c r="E422">
         <v>0</v>
       </c>
     </row>
@@ -11626,10 +11303,7 @@
         <f>"0x"&amp;BIN2HEX(D422&amp;D421&amp;D420&amp;D419&amp;D418&amp;D417, 2)</f>
         <v>0x1F</v>
       </c>
-      <c r="E424" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E422&amp;E421&amp;E420&amp;E419&amp;E418&amp;E417, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E424" s="9"/>
       <c r="F424" s="9"/>
       <c r="G424">
         <f>G415+1</f>
@@ -11637,7 +11311,7 @@
       </c>
       <c r="H424" s="1" t="str">
         <f t="shared" ref="H424" si="45">"'"&amp;CHAR(G424)&amp;"':bytearray("&amp;IF(A424&lt;&gt;"","[","")&amp;LOWER(IF(A424&lt;&gt;"",A424,"")&amp;IF(B424&lt;&gt;"",","&amp;B424,"")&amp;IF(C424&lt;&gt;"",","&amp;C424,"")&amp;IF(D424&lt;&gt;"",","&amp;D424,"")&amp;IF(E424&lt;&gt;"",","&amp;E424,"")&amp;IF(F424&lt;&gt;"",","&amp;F424,""))&amp;IF(A424&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'N':bytearray([0x1f,0x01,0x02,0x1f,0x00]),</v>
+        <v>'N':bytearray([0x1f,0x01,0x02,0x1f]),</v>
       </c>
     </row>
     <row r="426" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11653,9 +11327,6 @@
       <c r="D426">
         <v>0</v>
       </c>
-      <c r="E426">
-        <v>0</v>
-      </c>
     </row>
     <row r="427" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427">
@@ -11670,9 +11341,6 @@
       <c r="D427">
         <v>1</v>
       </c>
-      <c r="E427">
-        <v>0</v>
-      </c>
     </row>
     <row r="428" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428">
@@ -11687,9 +11355,6 @@
       <c r="D428">
         <v>1</v>
       </c>
-      <c r="E428">
-        <v>0</v>
-      </c>
     </row>
     <row r="429" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429">
@@ -11704,9 +11369,6 @@
       <c r="D429">
         <v>1</v>
       </c>
-      <c r="E429">
-        <v>0</v>
-      </c>
     </row>
     <row r="430" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430">
@@ -11721,9 +11383,6 @@
       <c r="D430">
         <v>0</v>
       </c>
-      <c r="E430">
-        <v>0</v>
-      </c>
     </row>
     <row r="431" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431">
@@ -11736,9 +11395,6 @@
         <v>0</v>
       </c>
       <c r="D431">
-        <v>0</v>
-      </c>
-      <c r="E431">
         <v>0</v>
       </c>
     </row>
@@ -11759,10 +11415,7 @@
         <f>"0x"&amp;BIN2HEX(D431&amp;D430&amp;D429&amp;D428&amp;D427&amp;D426, 2)</f>
         <v>0x0E</v>
       </c>
-      <c r="E433" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E431&amp;E430&amp;E429&amp;E428&amp;E427&amp;E426, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E433" s="9"/>
       <c r="F433" s="9"/>
       <c r="G433">
         <f>G424+1</f>
@@ -11770,7 +11423,7 @@
       </c>
       <c r="H433" s="1" t="str">
         <f t="shared" ref="H433" si="46">"'"&amp;CHAR(G433)&amp;"':bytearray("&amp;IF(A433&lt;&gt;"","[","")&amp;LOWER(IF(A433&lt;&gt;"",A433,"")&amp;IF(B433&lt;&gt;"",","&amp;B433,"")&amp;IF(C433&lt;&gt;"",","&amp;C433,"")&amp;IF(D433&lt;&gt;"",","&amp;D433,"")&amp;IF(E433&lt;&gt;"",","&amp;E433,"")&amp;IF(F433&lt;&gt;"",","&amp;F433,""))&amp;IF(A433&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'O':bytearray([0x0e,0x11,0x11,0x0e,0x00]),</v>
+        <v>'O':bytearray([0x0e,0x11,0x11,0x0e]),</v>
       </c>
     </row>
     <row r="435" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11786,9 +11439,6 @@
       <c r="D435">
         <v>1</v>
       </c>
-      <c r="E435">
-        <v>0</v>
-      </c>
     </row>
     <row r="436" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436">
@@ -11803,9 +11453,6 @@
       <c r="D436">
         <v>1</v>
       </c>
-      <c r="E436">
-        <v>0</v>
-      </c>
     </row>
     <row r="437" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437">
@@ -11820,9 +11467,6 @@
       <c r="D437">
         <v>1</v>
       </c>
-      <c r="E437">
-        <v>0</v>
-      </c>
     </row>
     <row r="438" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438">
@@ -11837,9 +11481,6 @@
       <c r="D438">
         <v>0</v>
       </c>
-      <c r="E438">
-        <v>0</v>
-      </c>
     </row>
     <row r="439" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439">
@@ -11854,9 +11495,6 @@
       <c r="D439">
         <v>0</v>
       </c>
-      <c r="E439">
-        <v>0</v>
-      </c>
     </row>
     <row r="440" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440">
@@ -11869,9 +11507,6 @@
         <v>0</v>
       </c>
       <c r="D440">
-        <v>0</v>
-      </c>
-      <c r="E440">
         <v>0</v>
       </c>
     </row>
@@ -11892,10 +11527,7 @@
         <f>"0x"&amp;BIN2HEX(D440&amp;D439&amp;D438&amp;D437&amp;D436&amp;D435, 2)</f>
         <v>0x07</v>
       </c>
-      <c r="E442" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E440&amp;E439&amp;E438&amp;E437&amp;E436&amp;E435, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E442" s="9"/>
       <c r="F442" s="9"/>
       <c r="G442">
         <f>G433+1</f>
@@ -11903,7 +11535,7 @@
       </c>
       <c r="H442" s="1" t="str">
         <f t="shared" ref="H442" si="47">"'"&amp;CHAR(G442)&amp;"':bytearray("&amp;IF(A442&lt;&gt;"","[","")&amp;LOWER(IF(A442&lt;&gt;"",A442,"")&amp;IF(B442&lt;&gt;"",","&amp;B442,"")&amp;IF(C442&lt;&gt;"",","&amp;C442,"")&amp;IF(D442&lt;&gt;"",","&amp;D442,"")&amp;IF(E442&lt;&gt;"",","&amp;E442,"")&amp;IF(F442&lt;&gt;"",","&amp;F442,""))&amp;IF(A442&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'P':bytearray([0x1f,0x05,0x05,0x07,0x00]),</v>
+        <v>'P':bytearray([0x1f,0x05,0x05,0x07]),</v>
       </c>
     </row>
     <row r="444" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11922,9 +11554,6 @@
       <c r="E444">
         <v>1</v>
       </c>
-      <c r="F444">
-        <v>0</v>
-      </c>
     </row>
     <row r="445" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445">
@@ -11942,9 +11571,6 @@
       <c r="E445">
         <v>1</v>
       </c>
-      <c r="F445">
-        <v>0</v>
-      </c>
     </row>
     <row r="446" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446">
@@ -11962,9 +11588,6 @@
       <c r="E446">
         <v>1</v>
       </c>
-      <c r="F446">
-        <v>0</v>
-      </c>
     </row>
     <row r="447" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447">
@@ -11982,9 +11605,6 @@
       <c r="E447">
         <v>1</v>
       </c>
-      <c r="F447">
-        <v>0</v>
-      </c>
     </row>
     <row r="448" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448">
@@ -12002,9 +11622,6 @@
       <c r="E448">
         <v>1</v>
       </c>
-      <c r="F448">
-        <v>0</v>
-      </c>
     </row>
     <row r="449" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449">
@@ -12022,13 +11639,10 @@
       <c r="E449">
         <v>0</v>
       </c>
-      <c r="F449">
-        <v>0</v>
-      </c>
     </row>
     <row r="451" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="9" t="str">
-        <f t="shared" ref="A451:F451" si="48">"0x"&amp;BIN2HEX(A449&amp;A448&amp;A447&amp;A446&amp;A445&amp;A444, 2)</f>
+        <f t="shared" ref="A451:E451" si="48">"0x"&amp;BIN2HEX(A449&amp;A448&amp;A447&amp;A446&amp;A445&amp;A444, 2)</f>
         <v>0x1F</v>
       </c>
       <c r="B451" s="9" t="str">
@@ -12047,17 +11661,14 @@
         <f t="shared" si="48"/>
         <v>0x1F</v>
       </c>
-      <c r="F451" s="9" t="str">
-        <f t="shared" si="48"/>
-        <v>0x00</v>
-      </c>
+      <c r="F451" s="9"/>
       <c r="G451">
         <f>G442+1</f>
         <v>81</v>
       </c>
       <c r="H451" s="1" t="str">
         <f t="shared" ref="H451" si="49">"'"&amp;CHAR(G451)&amp;"':bytearray("&amp;IF(A451&lt;&gt;"","[","")&amp;LOWER(IF(A451&lt;&gt;"",A451,"")&amp;IF(B451&lt;&gt;"",","&amp;B451,"")&amp;IF(C451&lt;&gt;"",","&amp;C451,"")&amp;IF(D451&lt;&gt;"",","&amp;D451,"")&amp;IF(E451&lt;&gt;"",","&amp;E451,"")&amp;IF(F451&lt;&gt;"",","&amp;F451,""))&amp;IF(A451&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'Q':bytearray([0x1f,0x15,0x3d,0x11,0x1f,0x00]),</v>
+        <v>'Q':bytearray([0x1f,0x15,0x3d,0x11,0x1f]),</v>
       </c>
     </row>
     <row r="453" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12073,9 +11684,6 @@
       <c r="D453">
         <v>1</v>
       </c>
-      <c r="E453">
-        <v>0</v>
-      </c>
     </row>
     <row r="454" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454">
@@ -12090,9 +11698,6 @@
       <c r="D454">
         <v>1</v>
       </c>
-      <c r="E454">
-        <v>0</v>
-      </c>
     </row>
     <row r="455" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455">
@@ -12107,9 +11712,6 @@
       <c r="D455">
         <v>1</v>
       </c>
-      <c r="E455">
-        <v>0</v>
-      </c>
     </row>
     <row r="456" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456">
@@ -12124,9 +11726,6 @@
       <c r="D456">
         <v>0</v>
       </c>
-      <c r="E456">
-        <v>0</v>
-      </c>
     </row>
     <row r="457" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457">
@@ -12141,9 +11740,6 @@
       <c r="D457">
         <v>0</v>
       </c>
-      <c r="E457">
-        <v>0</v>
-      </c>
     </row>
     <row r="458" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458">
@@ -12156,9 +11752,6 @@
         <v>0</v>
       </c>
       <c r="D458">
-        <v>0</v>
-      </c>
-      <c r="E458">
         <v>0</v>
       </c>
     </row>
@@ -12179,10 +11772,7 @@
         <f>"0x"&amp;BIN2HEX(D458&amp;D457&amp;D456&amp;D455&amp;D454&amp;D453, 2)</f>
         <v>0x07</v>
       </c>
-      <c r="E460" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E458&amp;E457&amp;E456&amp;E455&amp;E454&amp;E453, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E460" s="9"/>
       <c r="F460" s="9"/>
       <c r="G460">
         <f>G451+1</f>
@@ -12190,7 +11780,7 @@
       </c>
       <c r="H460" s="1" t="str">
         <f t="shared" ref="H460" si="50">"'"&amp;CHAR(G460)&amp;"':bytearray("&amp;IF(A460&lt;&gt;"","[","")&amp;LOWER(IF(A460&lt;&gt;"",A460,"")&amp;IF(B460&lt;&gt;"",","&amp;B460,"")&amp;IF(C460&lt;&gt;"",","&amp;C460,"")&amp;IF(D460&lt;&gt;"",","&amp;D460,"")&amp;IF(E460&lt;&gt;"",","&amp;E460,"")&amp;IF(F460&lt;&gt;"",","&amp;F460,""))&amp;IF(A460&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'R':bytearray([0x1f,0x05,0x1d,0x07,0x00]),</v>
+        <v>'R':bytearray([0x1f,0x05,0x1d,0x07]),</v>
       </c>
     </row>
     <row r="462" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12206,9 +11796,6 @@
       <c r="D462">
         <v>1</v>
       </c>
-      <c r="E462">
-        <v>0</v>
-      </c>
     </row>
     <row r="463" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463">
@@ -12223,9 +11810,6 @@
       <c r="D463">
         <v>0</v>
       </c>
-      <c r="E463">
-        <v>0</v>
-      </c>
     </row>
     <row r="464" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464">
@@ -12240,9 +11824,6 @@
       <c r="D464">
         <v>1</v>
       </c>
-      <c r="E464">
-        <v>0</v>
-      </c>
     </row>
     <row r="465" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465">
@@ -12257,9 +11838,6 @@
       <c r="D465">
         <v>1</v>
       </c>
-      <c r="E465">
-        <v>0</v>
-      </c>
     </row>
     <row r="466" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466">
@@ -12274,9 +11852,6 @@
       <c r="D466">
         <v>1</v>
       </c>
-      <c r="E466">
-        <v>0</v>
-      </c>
     </row>
     <row r="467" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467">
@@ -12289,9 +11864,6 @@
         <v>0</v>
       </c>
       <c r="D467">
-        <v>0</v>
-      </c>
-      <c r="E467">
         <v>0</v>
       </c>
     </row>
@@ -12312,10 +11884,7 @@
         <f>"0x"&amp;BIN2HEX(D467&amp;D466&amp;D465&amp;D464&amp;D463&amp;D462, 2)</f>
         <v>0x1D</v>
       </c>
-      <c r="E469" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E467&amp;E466&amp;E465&amp;E464&amp;E463&amp;E462, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E469" s="9"/>
       <c r="F469" s="9"/>
       <c r="G469">
         <f>G460+1</f>
@@ -12323,7 +11892,7 @@
       </c>
       <c r="H469" s="1" t="str">
         <f t="shared" ref="H469" si="51">"'"&amp;CHAR(G469)&amp;"':bytearray("&amp;IF(A469&lt;&gt;"","[","")&amp;LOWER(IF(A469&lt;&gt;"",A469,"")&amp;IF(B469&lt;&gt;"",","&amp;B469,"")&amp;IF(C469&lt;&gt;"",","&amp;C469,"")&amp;IF(D469&lt;&gt;"",","&amp;D469,"")&amp;IF(E469&lt;&gt;"",","&amp;E469,"")&amp;IF(F469&lt;&gt;"",","&amp;F469,""))&amp;IF(A469&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'S':bytearray([0x16,0x15,0x15,0x1d,0x00]),</v>
+        <v>'S':bytearray([0x16,0x15,0x15,0x1d]),</v>
       </c>
     </row>
     <row r="471" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12342,9 +11911,6 @@
       <c r="E471">
         <v>1</v>
       </c>
-      <c r="F471">
-        <v>0</v>
-      </c>
     </row>
     <row r="472" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472">
@@ -12362,9 +11928,6 @@
       <c r="E472">
         <v>0</v>
       </c>
-      <c r="F472">
-        <v>0</v>
-      </c>
     </row>
     <row r="473" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473">
@@ -12382,9 +11945,6 @@
       <c r="E473">
         <v>0</v>
       </c>
-      <c r="F473">
-        <v>0</v>
-      </c>
     </row>
     <row r="474" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474">
@@ -12402,9 +11962,6 @@
       <c r="E474">
         <v>0</v>
       </c>
-      <c r="F474">
-        <v>0</v>
-      </c>
     </row>
     <row r="475" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475">
@@ -12422,9 +11979,6 @@
       <c r="E475">
         <v>0</v>
       </c>
-      <c r="F475">
-        <v>0</v>
-      </c>
     </row>
     <row r="476" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476">
@@ -12442,13 +11996,10 @@
       <c r="E476">
         <v>0</v>
       </c>
-      <c r="F476">
-        <v>0</v>
-      </c>
     </row>
     <row r="478" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="9" t="str">
-        <f t="shared" ref="A478:F478" si="52">"0x"&amp;BIN2HEX(A476&amp;A475&amp;A474&amp;A473&amp;A472&amp;A471, 2)</f>
+        <f t="shared" ref="A478:E478" si="52">"0x"&amp;BIN2HEX(A476&amp;A475&amp;A474&amp;A473&amp;A472&amp;A471, 2)</f>
         <v>0x01</v>
       </c>
       <c r="B478" s="9" t="str">
@@ -12467,17 +12018,14 @@
         <f t="shared" si="52"/>
         <v>0x01</v>
       </c>
-      <c r="F478" s="9" t="str">
-        <f t="shared" si="52"/>
-        <v>0x00</v>
-      </c>
+      <c r="F478" s="9"/>
       <c r="G478">
         <f>G469+1</f>
         <v>84</v>
       </c>
       <c r="H478" s="1" t="str">
         <f t="shared" ref="H478" si="53">"'"&amp;CHAR(G478)&amp;"':bytearray("&amp;IF(A478&lt;&gt;"","[","")&amp;LOWER(IF(A478&lt;&gt;"",A478,"")&amp;IF(B478&lt;&gt;"",","&amp;B478,"")&amp;IF(C478&lt;&gt;"",","&amp;C478,"")&amp;IF(D478&lt;&gt;"",","&amp;D478,"")&amp;IF(E478&lt;&gt;"",","&amp;E478,"")&amp;IF(F478&lt;&gt;"",","&amp;F478,""))&amp;IF(A478&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'T':bytearray([0x01,0x01,0x1f,0x01,0x01,0x00]),</v>
+        <v>'T':bytearray([0x01,0x01,0x1f,0x01,0x01]),</v>
       </c>
     </row>
     <row r="480" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12493,9 +12041,6 @@
       <c r="D480">
         <v>1</v>
       </c>
-      <c r="E480">
-        <v>0</v>
-      </c>
     </row>
     <row r="481" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481">
@@ -12510,9 +12055,6 @@
       <c r="D481">
         <v>1</v>
       </c>
-      <c r="E481">
-        <v>0</v>
-      </c>
     </row>
     <row r="482" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482">
@@ -12527,9 +12069,6 @@
       <c r="D482">
         <v>1</v>
       </c>
-      <c r="E482">
-        <v>0</v>
-      </c>
     </row>
     <row r="483" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483">
@@ -12544,9 +12083,6 @@
       <c r="D483">
         <v>1</v>
       </c>
-      <c r="E483">
-        <v>0</v>
-      </c>
     </row>
     <row r="484" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484">
@@ -12561,9 +12097,6 @@
       <c r="D484">
         <v>0</v>
       </c>
-      <c r="E484">
-        <v>0</v>
-      </c>
     </row>
     <row r="485" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485">
@@ -12576,9 +12109,6 @@
         <v>0</v>
       </c>
       <c r="D485">
-        <v>0</v>
-      </c>
-      <c r="E485">
         <v>0</v>
       </c>
     </row>
@@ -12599,10 +12129,7 @@
         <f>"0x"&amp;BIN2HEX(D485&amp;D484&amp;D483&amp;D482&amp;D481&amp;D480, 2)</f>
         <v>0x0F</v>
       </c>
-      <c r="E487" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E485&amp;E484&amp;E483&amp;E482&amp;E481&amp;E480, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E487" s="9"/>
       <c r="F487" s="9"/>
       <c r="G487">
         <f>G478+1</f>
@@ -12610,7 +12137,7 @@
       </c>
       <c r="H487" s="1" t="str">
         <f t="shared" ref="H487" si="54">"'"&amp;CHAR(G487)&amp;"':bytearray("&amp;IF(A487&lt;&gt;"","[","")&amp;LOWER(IF(A487&lt;&gt;"",A487,"")&amp;IF(B487&lt;&gt;"",","&amp;B487,"")&amp;IF(C487&lt;&gt;"",","&amp;C487,"")&amp;IF(D487&lt;&gt;"",","&amp;D487,"")&amp;IF(E487&lt;&gt;"",","&amp;E487,"")&amp;IF(F487&lt;&gt;"",","&amp;F487,""))&amp;IF(A487&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'U':bytearray([0x0f,0x10,0x10,0x0f,0x00]),</v>
+        <v>'U':bytearray([0x0f,0x10,0x10,0x0f]),</v>
       </c>
     </row>
     <row r="489" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12626,9 +12153,6 @@
       <c r="D489">
         <v>1</v>
       </c>
-      <c r="E489">
-        <v>0</v>
-      </c>
     </row>
     <row r="490" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490">
@@ -12643,9 +12167,6 @@
       <c r="D490">
         <v>1</v>
       </c>
-      <c r="E490">
-        <v>0</v>
-      </c>
     </row>
     <row r="491" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491">
@@ -12660,9 +12181,6 @@
       <c r="D491">
         <v>1</v>
       </c>
-      <c r="E491">
-        <v>0</v>
-      </c>
     </row>
     <row r="492" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492">
@@ -12677,9 +12195,6 @@
       <c r="D492">
         <v>0</v>
       </c>
-      <c r="E492">
-        <v>0</v>
-      </c>
     </row>
     <row r="493" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493">
@@ -12694,9 +12209,6 @@
       <c r="D493">
         <v>0</v>
       </c>
-      <c r="E493">
-        <v>0</v>
-      </c>
     </row>
     <row r="494" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494">
@@ -12709,9 +12221,6 @@
         <v>0</v>
       </c>
       <c r="D494">
-        <v>0</v>
-      </c>
-      <c r="E494">
         <v>0</v>
       </c>
     </row>
@@ -12732,10 +12241,7 @@
         <f>"0x"&amp;BIN2HEX(D494&amp;D493&amp;D492&amp;D491&amp;D490&amp;D489, 2)</f>
         <v>0x07</v>
       </c>
-      <c r="E496" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E494&amp;E493&amp;E492&amp;E491&amp;E490&amp;E489, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E496" s="9"/>
       <c r="F496" s="9"/>
       <c r="G496">
         <f>G487+1</f>
@@ -12743,7 +12249,7 @@
       </c>
       <c r="H496" s="1" t="str">
         <f t="shared" ref="H496" si="55">"'"&amp;CHAR(G496)&amp;"':bytearray("&amp;IF(A496&lt;&gt;"","[","")&amp;LOWER(IF(A496&lt;&gt;"",A496,"")&amp;IF(B496&lt;&gt;"",","&amp;B496,"")&amp;IF(C496&lt;&gt;"",","&amp;C496,"")&amp;IF(D496&lt;&gt;"",","&amp;D496,"")&amp;IF(E496&lt;&gt;"",","&amp;E496,"")&amp;IF(F496&lt;&gt;"",","&amp;F496,""))&amp;IF(A496&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'V':bytearray([0x1f,0x10,0x08,0x07,0x00]),</v>
+        <v>'V':bytearray([0x1f,0x10,0x08,0x07]),</v>
       </c>
     </row>
     <row r="498" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12762,9 +12268,6 @@
       <c r="E498">
         <v>1</v>
       </c>
-      <c r="F498">
-        <v>0</v>
-      </c>
     </row>
     <row r="499" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499">
@@ -12782,9 +12285,6 @@
       <c r="E499">
         <v>1</v>
       </c>
-      <c r="F499">
-        <v>0</v>
-      </c>
     </row>
     <row r="500" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500">
@@ -12802,9 +12302,6 @@
       <c r="E500">
         <v>1</v>
       </c>
-      <c r="F500">
-        <v>0</v>
-      </c>
     </row>
     <row r="501" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501">
@@ -12822,9 +12319,6 @@
       <c r="E501">
         <v>1</v>
       </c>
-      <c r="F501">
-        <v>0</v>
-      </c>
     </row>
     <row r="502" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502">
@@ -12842,9 +12336,6 @@
       <c r="E502">
         <v>0</v>
       </c>
-      <c r="F502">
-        <v>0</v>
-      </c>
     </row>
     <row r="503" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503">
@@ -12862,13 +12353,10 @@
       <c r="E503">
         <v>0</v>
       </c>
-      <c r="F503">
-        <v>0</v>
-      </c>
     </row>
     <row r="505" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="9" t="str">
-        <f t="shared" ref="A505:F505" si="56">"0x"&amp;BIN2HEX(A503&amp;A502&amp;A501&amp;A500&amp;A499&amp;A498, 2)</f>
+        <f t="shared" ref="A505:E505" si="56">"0x"&amp;BIN2HEX(A503&amp;A502&amp;A501&amp;A500&amp;A499&amp;A498, 2)</f>
         <v>0x0F</v>
       </c>
       <c r="B505" s="9" t="str">
@@ -12887,17 +12375,14 @@
         <f t="shared" si="56"/>
         <v>0x0F</v>
       </c>
-      <c r="F505" s="9" t="str">
-        <f t="shared" si="56"/>
-        <v>0x00</v>
-      </c>
+      <c r="F505" s="9"/>
       <c r="G505">
         <f>G496+1</f>
         <v>87</v>
       </c>
       <c r="H505" s="1" t="str">
         <f t="shared" ref="H505" si="57">"'"&amp;CHAR(G505)&amp;"':bytearray("&amp;IF(A505&lt;&gt;"","[","")&amp;LOWER(IF(A505&lt;&gt;"",A505,"")&amp;IF(B505&lt;&gt;"",","&amp;B505,"")&amp;IF(C505&lt;&gt;"",","&amp;C505,"")&amp;IF(D505&lt;&gt;"",","&amp;D505,"")&amp;IF(E505&lt;&gt;"",","&amp;E505,"")&amp;IF(F505&lt;&gt;"",","&amp;F505,""))&amp;IF(A505&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'W':bytearray([0x0f,0x10,0x1c,0x10,0x0f,0x00]),</v>
+        <v>'W':bytearray([0x0f,0x10,0x1c,0x10,0x0f]),</v>
       </c>
     </row>
     <row r="507" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12916,9 +12401,6 @@
       <c r="E507">
         <v>1</v>
       </c>
-      <c r="F507">
-        <v>0</v>
-      </c>
     </row>
     <row r="508" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508">
@@ -12936,9 +12418,6 @@
       <c r="E508">
         <v>1</v>
       </c>
-      <c r="F508">
-        <v>0</v>
-      </c>
     </row>
     <row r="509" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509">
@@ -12956,9 +12435,6 @@
       <c r="E509">
         <v>1</v>
       </c>
-      <c r="F509">
-        <v>0</v>
-      </c>
     </row>
     <row r="510" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510">
@@ -12976,9 +12452,6 @@
       <c r="E510">
         <v>0</v>
       </c>
-      <c r="F510">
-        <v>0</v>
-      </c>
     </row>
     <row r="511" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511">
@@ -12996,9 +12469,6 @@
       <c r="E511">
         <v>0</v>
       </c>
-      <c r="F511">
-        <v>0</v>
-      </c>
     </row>
     <row r="512" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512">
@@ -13016,13 +12486,10 @@
       <c r="E512">
         <v>0</v>
       </c>
-      <c r="F512">
-        <v>0</v>
-      </c>
     </row>
     <row r="514" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="9" t="str">
-        <f t="shared" ref="A514:F514" si="58">"0x"&amp;BIN2HEX(A512&amp;A511&amp;A510&amp;A509&amp;A508&amp;A507, 2)</f>
+        <f t="shared" ref="A514:E514" si="58">"0x"&amp;BIN2HEX(A512&amp;A511&amp;A510&amp;A509&amp;A508&amp;A507, 2)</f>
         <v>0x1C</v>
       </c>
       <c r="B514" s="9" t="str">
@@ -13041,17 +12508,14 @@
         <f t="shared" si="58"/>
         <v>0x07</v>
       </c>
-      <c r="F514" s="9" t="str">
-        <f t="shared" si="58"/>
-        <v>0x00</v>
-      </c>
+      <c r="F514" s="9"/>
       <c r="G514">
         <f>G505+1</f>
         <v>88</v>
       </c>
       <c r="H514" s="1" t="str">
         <f t="shared" ref="H514" si="59">"'"&amp;CHAR(G514)&amp;"':bytearray("&amp;IF(A514&lt;&gt;"","[","")&amp;LOWER(IF(A514&lt;&gt;"",A514,"")&amp;IF(B514&lt;&gt;"",","&amp;B514,"")&amp;IF(C514&lt;&gt;"",","&amp;C514,"")&amp;IF(D514&lt;&gt;"",","&amp;D514,"")&amp;IF(E514&lt;&gt;"",","&amp;E514,"")&amp;IF(F514&lt;&gt;"",","&amp;F514,""))&amp;IF(A514&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'X':bytearray([0x1c,0x04,0x1f,0x04,0x07,0x00]),</v>
+        <v>'X':bytearray([0x1c,0x04,0x1f,0x04,0x07]),</v>
       </c>
     </row>
     <row r="516" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13070,9 +12534,6 @@
       <c r="E516">
         <v>1</v>
       </c>
-      <c r="F516">
-        <v>0</v>
-      </c>
     </row>
     <row r="517" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517">
@@ -13090,9 +12551,6 @@
       <c r="E517">
         <v>1</v>
       </c>
-      <c r="F517">
-        <v>0</v>
-      </c>
     </row>
     <row r="518" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518">
@@ -13110,9 +12568,6 @@
       <c r="E518">
         <v>0</v>
       </c>
-      <c r="F518">
-        <v>0</v>
-      </c>
     </row>
     <row r="519" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519">
@@ -13130,9 +12585,6 @@
       <c r="E519">
         <v>0</v>
       </c>
-      <c r="F519">
-        <v>0</v>
-      </c>
     </row>
     <row r="520" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520">
@@ -13150,9 +12602,6 @@
       <c r="E520">
         <v>0</v>
       </c>
-      <c r="F520">
-        <v>0</v>
-      </c>
     </row>
     <row r="521" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521">
@@ -13170,13 +12619,10 @@
       <c r="E521">
         <v>0</v>
       </c>
-      <c r="F521">
-        <v>0</v>
-      </c>
     </row>
     <row r="523" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="9" t="str">
-        <f t="shared" ref="A523:F523" si="60">"0x"&amp;BIN2HEX(A521&amp;A520&amp;A519&amp;A518&amp;A517&amp;A516, 2)</f>
+        <f t="shared" ref="A523:E523" si="60">"0x"&amp;BIN2HEX(A521&amp;A520&amp;A519&amp;A518&amp;A517&amp;A516, 2)</f>
         <v>0x03</v>
       </c>
       <c r="B523" s="9" t="str">
@@ -13195,17 +12641,14 @@
         <f t="shared" si="60"/>
         <v>0x03</v>
       </c>
-      <c r="F523" s="9" t="str">
-        <f t="shared" si="60"/>
-        <v>0x00</v>
-      </c>
+      <c r="F523" s="9"/>
       <c r="G523">
         <f>G514+1</f>
         <v>89</v>
       </c>
       <c r="H523" s="1" t="str">
         <f t="shared" ref="H523" si="61">"'"&amp;CHAR(G523)&amp;"':bytearray("&amp;IF(A523&lt;&gt;"","[","")&amp;LOWER(IF(A523&lt;&gt;"",A523,"")&amp;IF(B523&lt;&gt;"",","&amp;B523,"")&amp;IF(C523&lt;&gt;"",","&amp;C523,"")&amp;IF(D523&lt;&gt;"",","&amp;D523,"")&amp;IF(E523&lt;&gt;"",","&amp;E523,"")&amp;IF(F523&lt;&gt;"",","&amp;F523,""))&amp;IF(A523&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'Y':bytearray([0x03,0x04,0x1c,0x04,0x03,0x00]),</v>
+        <v>'Y':bytearray([0x03,0x04,0x1c,0x04,0x03]),</v>
       </c>
     </row>
     <row r="525" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13221,9 +12664,6 @@
       <c r="D525">
         <v>1</v>
       </c>
-      <c r="E525">
-        <v>0</v>
-      </c>
     </row>
     <row r="526" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526">
@@ -13238,9 +12678,6 @@
       <c r="D526">
         <v>0</v>
       </c>
-      <c r="E526">
-        <v>0</v>
-      </c>
     </row>
     <row r="527" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527">
@@ -13255,9 +12692,6 @@
       <c r="D527">
         <v>0</v>
       </c>
-      <c r="E527">
-        <v>0</v>
-      </c>
     </row>
     <row r="528" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528">
@@ -13272,9 +12706,6 @@
       <c r="D528">
         <v>0</v>
       </c>
-      <c r="E528">
-        <v>0</v>
-      </c>
     </row>
     <row r="529" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529">
@@ -13289,9 +12720,6 @@
       <c r="D529">
         <v>1</v>
       </c>
-      <c r="E529">
-        <v>0</v>
-      </c>
     </row>
     <row r="530" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530">
@@ -13304,9 +12732,6 @@
         <v>0</v>
       </c>
       <c r="D530">
-        <v>0</v>
-      </c>
-      <c r="E530">
         <v>0</v>
       </c>
     </row>
@@ -13327,10 +12752,7 @@
         <f>"0x"&amp;BIN2HEX(D530&amp;D529&amp;D528&amp;D527&amp;D526&amp;D525, 2)</f>
         <v>0x11</v>
       </c>
-      <c r="E532" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E530&amp;E529&amp;E528&amp;E527&amp;E526&amp;E525, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E532" s="9"/>
       <c r="F532" s="9"/>
       <c r="G532">
         <f>G523+1</f>
@@ -13338,7 +12760,7 @@
       </c>
       <c r="H532" s="1" t="str">
         <f t="shared" ref="H532" si="62">"'"&amp;CHAR(G532)&amp;"':bytearray("&amp;IF(A532&lt;&gt;"","[","")&amp;LOWER(IF(A532&lt;&gt;"",A532,"")&amp;IF(B532&lt;&gt;"",","&amp;B532,"")&amp;IF(C532&lt;&gt;"",","&amp;C532,"")&amp;IF(D532&lt;&gt;"",","&amp;D532,"")&amp;IF(E532&lt;&gt;"",","&amp;E532,"")&amp;IF(F532&lt;&gt;"",","&amp;F532,""))&amp;IF(A532&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'Z':bytearray([0x19,0x15,0x13,0x11,0x00]),</v>
+        <v>'Z':bytearray([0x19,0x15,0x13,0x11]),</v>
       </c>
     </row>
     <row r="534" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13483,9 +12905,6 @@
       <c r="C588">
         <v>0</v>
       </c>
-      <c r="D588">
-        <v>0</v>
-      </c>
     </row>
     <row r="589" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589">
@@ -13497,9 +12916,6 @@
       <c r="C589">
         <v>0</v>
       </c>
-      <c r="D589">
-        <v>0</v>
-      </c>
     </row>
     <row r="590" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590">
@@ -13511,9 +12927,6 @@
       <c r="C590">
         <v>1</v>
       </c>
-      <c r="D590">
-        <v>0</v>
-      </c>
     </row>
     <row r="591" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591">
@@ -13525,9 +12938,6 @@
       <c r="C591">
         <v>1</v>
       </c>
-      <c r="D591">
-        <v>0</v>
-      </c>
     </row>
     <row r="592" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592">
@@ -13539,9 +12949,6 @@
       <c r="C592">
         <v>1</v>
       </c>
-      <c r="D592">
-        <v>0</v>
-      </c>
     </row>
     <row r="593" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593">
@@ -13551,9 +12958,6 @@
         <v>0</v>
       </c>
       <c r="C593">
-        <v>0</v>
-      </c>
-      <c r="D593">
         <v>0</v>
       </c>
     </row>
@@ -13570,10 +12974,7 @@
         <f>"0x"&amp;BIN2HEX(C593&amp;C592&amp;C591&amp;C590&amp;C589&amp;C588, 2)</f>
         <v>0x1C</v>
       </c>
-      <c r="D595" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D593&amp;D592&amp;D591&amp;D590&amp;D589&amp;D588, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D595" s="9"/>
       <c r="E595" s="9"/>
       <c r="F595" s="9"/>
       <c r="G595">
@@ -13582,7 +12983,7 @@
       </c>
       <c r="H595" s="1" t="str">
         <f t="shared" ref="H595" si="69">"'"&amp;CHAR(G595)&amp;"':bytearray("&amp;IF(A595&lt;&gt;"","[","")&amp;LOWER(IF(A595&lt;&gt;"",A595,"")&amp;IF(B595&lt;&gt;"",","&amp;B595,"")&amp;IF(C595&lt;&gt;"",","&amp;C595,"")&amp;IF(D595&lt;&gt;"",","&amp;D595,"")&amp;IF(E595&lt;&gt;"",","&amp;E595,"")&amp;IF(F595&lt;&gt;"",","&amp;F595,""))&amp;IF(A595&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'a':bytearray([0x18,0x14,0x1c,0x00]),</v>
+        <v>'a':bytearray([0x18,0x14,0x1c]),</v>
       </c>
     </row>
     <row r="597" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13595,9 +12996,6 @@
       <c r="C597">
         <v>0</v>
       </c>
-      <c r="D597">
-        <v>0</v>
-      </c>
     </row>
     <row r="598" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598">
@@ -13609,9 +13007,6 @@
       <c r="C598">
         <v>0</v>
       </c>
-      <c r="D598">
-        <v>0</v>
-      </c>
     </row>
     <row r="599" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599">
@@ -13623,9 +13018,6 @@
       <c r="C599">
         <v>1</v>
       </c>
-      <c r="D599">
-        <v>0</v>
-      </c>
     </row>
     <row r="600" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600">
@@ -13637,9 +13029,6 @@
       <c r="C600">
         <v>1</v>
       </c>
-      <c r="D600">
-        <v>0</v>
-      </c>
     </row>
     <row r="601" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601">
@@ -13651,9 +13040,6 @@
       <c r="C601">
         <v>1</v>
       </c>
-      <c r="D601">
-        <v>0</v>
-      </c>
     </row>
     <row r="602" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602">
@@ -13663,9 +13049,6 @@
         <v>0</v>
       </c>
       <c r="C602">
-        <v>0</v>
-      </c>
-      <c r="D602">
         <v>0</v>
       </c>
     </row>
@@ -13682,10 +13065,7 @@
         <f>"0x"&amp;BIN2HEX(C602&amp;C601&amp;C600&amp;C599&amp;C598&amp;C597, 2)</f>
         <v>0x1C</v>
       </c>
-      <c r="D604" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D602&amp;D601&amp;D600&amp;D599&amp;D598&amp;D597, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D604" s="9"/>
       <c r="E604" s="9"/>
       <c r="F604" s="9"/>
       <c r="G604">
@@ -13694,7 +13074,7 @@
       </c>
       <c r="H604" s="1" t="str">
         <f t="shared" ref="H604" si="70">"'"&amp;CHAR(G604)&amp;"':bytearray("&amp;IF(A604&lt;&gt;"","[","")&amp;LOWER(IF(A604&lt;&gt;"",A604,"")&amp;IF(B604&lt;&gt;"",","&amp;B604,"")&amp;IF(C604&lt;&gt;"",","&amp;C604,"")&amp;IF(D604&lt;&gt;"",","&amp;D604,"")&amp;IF(E604&lt;&gt;"",","&amp;E604,"")&amp;IF(F604&lt;&gt;"",","&amp;F604,""))&amp;IF(A604&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'b':bytearray([0x1f,0x14,0x1c,0x00]),</v>
+        <v>'b':bytearray([0x1f,0x14,0x1c]),</v>
       </c>
     </row>
     <row r="606" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13707,9 +13087,6 @@
       <c r="C606">
         <v>0</v>
       </c>
-      <c r="D606">
-        <v>0</v>
-      </c>
     </row>
     <row r="607" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607">
@@ -13721,9 +13098,6 @@
       <c r="C607">
         <v>0</v>
       </c>
-      <c r="D607">
-        <v>0</v>
-      </c>
     </row>
     <row r="608" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608">
@@ -13735,9 +13109,6 @@
       <c r="C608">
         <v>1</v>
       </c>
-      <c r="D608">
-        <v>0</v>
-      </c>
     </row>
     <row r="609" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609">
@@ -13749,9 +13120,6 @@
       <c r="C609">
         <v>0</v>
       </c>
-      <c r="D609">
-        <v>0</v>
-      </c>
     </row>
     <row r="610" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610">
@@ -13763,9 +13131,6 @@
       <c r="C610">
         <v>1</v>
       </c>
-      <c r="D610">
-        <v>0</v>
-      </c>
     </row>
     <row r="611" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611">
@@ -13775,9 +13140,6 @@
         <v>0</v>
       </c>
       <c r="C611">
-        <v>0</v>
-      </c>
-      <c r="D611">
         <v>0</v>
       </c>
     </row>
@@ -13794,10 +13156,7 @@
         <f>"0x"&amp;BIN2HEX(C611&amp;C610&amp;C609&amp;C608&amp;C607&amp;C606, 2)</f>
         <v>0x14</v>
       </c>
-      <c r="D613" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D611&amp;D610&amp;D609&amp;D608&amp;D607&amp;D606, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D613" s="9"/>
       <c r="E613" s="9"/>
       <c r="F613" s="9"/>
       <c r="G613">
@@ -13806,7 +13165,7 @@
       </c>
       <c r="H613" s="1" t="str">
         <f t="shared" ref="H613" si="71">"'"&amp;CHAR(G613)&amp;"':bytearray("&amp;IF(A613&lt;&gt;"","[","")&amp;LOWER(IF(A613&lt;&gt;"",A613,"")&amp;IF(B613&lt;&gt;"",","&amp;B613,"")&amp;IF(C613&lt;&gt;"",","&amp;C613,"")&amp;IF(D613&lt;&gt;"",","&amp;D613,"")&amp;IF(E613&lt;&gt;"",","&amp;E613,"")&amp;IF(F613&lt;&gt;"",","&amp;F613,""))&amp;IF(A613&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'c':bytearray([0x08,0x14,0x14,0x00]),</v>
+        <v>'c':bytearray([0x08,0x14,0x14]),</v>
       </c>
     </row>
     <row r="615" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13819,9 +13178,6 @@
       <c r="C615">
         <v>1</v>
       </c>
-      <c r="D615">
-        <v>0</v>
-      </c>
     </row>
     <row r="616" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616">
@@ -13833,9 +13189,6 @@
       <c r="C616">
         <v>1</v>
       </c>
-      <c r="D616">
-        <v>0</v>
-      </c>
     </row>
     <row r="617" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617">
@@ -13847,9 +13200,6 @@
       <c r="C617">
         <v>1</v>
       </c>
-      <c r="D617">
-        <v>0</v>
-      </c>
     </row>
     <row r="618" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618">
@@ -13861,9 +13211,6 @@
       <c r="C618">
         <v>1</v>
       </c>
-      <c r="D618">
-        <v>0</v>
-      </c>
     </row>
     <row r="619" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619">
@@ -13875,9 +13222,6 @@
       <c r="C619">
         <v>1</v>
       </c>
-      <c r="D619">
-        <v>0</v>
-      </c>
     </row>
     <row r="620" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620">
@@ -13887,9 +13231,6 @@
         <v>0</v>
       </c>
       <c r="C620">
-        <v>0</v>
-      </c>
-      <c r="D620">
         <v>0</v>
       </c>
     </row>
@@ -13906,10 +13247,7 @@
         <f>"0x"&amp;BIN2HEX(C620&amp;C619&amp;C618&amp;C617&amp;C616&amp;C615, 2)</f>
         <v>0x1F</v>
       </c>
-      <c r="D622" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D620&amp;D619&amp;D618&amp;D617&amp;D616&amp;D615, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D622" s="9"/>
       <c r="E622" s="9"/>
       <c r="F622" s="9"/>
       <c r="G622">
@@ -13918,7 +13256,7 @@
       </c>
       <c r="H622" s="1" t="str">
         <f t="shared" ref="H622" si="72">"'"&amp;CHAR(G622)&amp;"':bytearray("&amp;IF(A622&lt;&gt;"","[","")&amp;LOWER(IF(A622&lt;&gt;"",A622,"")&amp;IF(B622&lt;&gt;"",","&amp;B622,"")&amp;IF(C622&lt;&gt;"",","&amp;C622,"")&amp;IF(D622&lt;&gt;"",","&amp;D622,"")&amp;IF(E622&lt;&gt;"",","&amp;E622,"")&amp;IF(F622&lt;&gt;"",","&amp;F622,""))&amp;IF(A622&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'d':bytearray([0x18,0x14,0x1f,0x00]),</v>
+        <v>'d':bytearray([0x18,0x14,0x1f]),</v>
       </c>
     </row>
     <row r="624" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13931,9 +13269,6 @@
       <c r="C624">
         <v>0</v>
       </c>
-      <c r="D624">
-        <v>0</v>
-      </c>
     </row>
     <row r="625" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625">
@@ -13945,9 +13280,6 @@
       <c r="C625">
         <v>0</v>
       </c>
-      <c r="D625">
-        <v>0</v>
-      </c>
     </row>
     <row r="626" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626">
@@ -13959,9 +13291,6 @@
       <c r="C626">
         <v>1</v>
       </c>
-      <c r="D626">
-        <v>0</v>
-      </c>
     </row>
     <row r="627" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627">
@@ -13973,9 +13302,6 @@
       <c r="C627">
         <v>0</v>
       </c>
-      <c r="D627">
-        <v>0</v>
-      </c>
     </row>
     <row r="628" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628">
@@ -13987,9 +13313,6 @@
       <c r="C628">
         <v>1</v>
       </c>
-      <c r="D628">
-        <v>0</v>
-      </c>
     </row>
     <row r="629" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629">
@@ -13999,9 +13322,6 @@
         <v>0</v>
       </c>
       <c r="C629">
-        <v>0</v>
-      </c>
-      <c r="D629">
         <v>0</v>
       </c>
     </row>
@@ -14018,10 +13338,7 @@
         <f>"0x"&amp;BIN2HEX(C629&amp;C628&amp;C627&amp;C626&amp;C625&amp;C624, 2)</f>
         <v>0x14</v>
       </c>
-      <c r="D631" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D629&amp;D628&amp;D627&amp;D626&amp;D625&amp;D624, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D631" s="9"/>
       <c r="E631" s="9"/>
       <c r="F631" s="9"/>
       <c r="G631">
@@ -14030,7 +13347,7 @@
       </c>
       <c r="H631" s="1" t="str">
         <f t="shared" ref="H631" si="73">"'"&amp;CHAR(G631)&amp;"':bytearray("&amp;IF(A631&lt;&gt;"","[","")&amp;LOWER(IF(A631&lt;&gt;"",A631,"")&amp;IF(B631&lt;&gt;"",","&amp;B631,"")&amp;IF(C631&lt;&gt;"",","&amp;C631,"")&amp;IF(D631&lt;&gt;"",","&amp;D631,"")&amp;IF(E631&lt;&gt;"",","&amp;E631,"")&amp;IF(F631&lt;&gt;"",","&amp;F631,""))&amp;IF(A631&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'e':bytearray([0x0c,0x1a,0x14,0x00]),</v>
+        <v>'e':bytearray([0x0c,0x1a,0x14]),</v>
       </c>
     </row>
     <row r="633" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14043,9 +13360,6 @@
       <c r="C633">
         <v>1</v>
       </c>
-      <c r="D633">
-        <v>0</v>
-      </c>
     </row>
     <row r="634" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634">
@@ -14057,9 +13371,6 @@
       <c r="C634">
         <v>0</v>
       </c>
-      <c r="D634">
-        <v>0</v>
-      </c>
     </row>
     <row r="635" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635">
@@ -14071,9 +13382,6 @@
       <c r="C635">
         <v>0</v>
       </c>
-      <c r="D635">
-        <v>0</v>
-      </c>
     </row>
     <row r="636" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636">
@@ -14085,9 +13393,6 @@
       <c r="C636">
         <v>0</v>
       </c>
-      <c r="D636">
-        <v>0</v>
-      </c>
     </row>
     <row r="637" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637">
@@ -14099,9 +13404,6 @@
       <c r="C637">
         <v>0</v>
       </c>
-      <c r="D637">
-        <v>0</v>
-      </c>
     </row>
     <row r="638" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638">
@@ -14111,9 +13413,6 @@
         <v>0</v>
       </c>
       <c r="C638">
-        <v>0</v>
-      </c>
-      <c r="D638">
         <v>0</v>
       </c>
     </row>
@@ -14130,10 +13429,7 @@
         <f>"0x"&amp;BIN2HEX(C638&amp;C637&amp;C636&amp;C635&amp;C634&amp;C633, 2)</f>
         <v>0x01</v>
       </c>
-      <c r="D640" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D638&amp;D637&amp;D636&amp;D635&amp;D634&amp;D633, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D640" s="9"/>
       <c r="E640" s="9"/>
       <c r="F640" s="9"/>
       <c r="G640">
@@ -14142,7 +13438,7 @@
       </c>
       <c r="H640" s="1" t="str">
         <f t="shared" ref="H640" si="74">"'"&amp;CHAR(G640)&amp;"':bytearray("&amp;IF(A640&lt;&gt;"","[","")&amp;LOWER(IF(A640&lt;&gt;"",A640,"")&amp;IF(B640&lt;&gt;"",","&amp;B640,"")&amp;IF(C640&lt;&gt;"",","&amp;C640,"")&amp;IF(D640&lt;&gt;"",","&amp;D640,"")&amp;IF(E640&lt;&gt;"",","&amp;E640,"")&amp;IF(F640&lt;&gt;"",","&amp;F640,""))&amp;IF(A640&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'f':bytearray([0x1e,0x05,0x01,0x00]),</v>
+        <v>'f':bytearray([0x1e,0x05,0x01]),</v>
       </c>
     </row>
     <row r="642" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14155,9 +13451,6 @@
       <c r="C642">
         <v>1</v>
       </c>
-      <c r="D642">
-        <v>0</v>
-      </c>
     </row>
     <row r="643" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643">
@@ -14169,9 +13462,6 @@
       <c r="C643">
         <v>1</v>
       </c>
-      <c r="D643">
-        <v>0</v>
-      </c>
     </row>
     <row r="644" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644">
@@ -14183,9 +13473,6 @@
       <c r="C644">
         <v>1</v>
       </c>
-      <c r="D644">
-        <v>0</v>
-      </c>
     </row>
     <row r="645" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645">
@@ -14197,9 +13484,6 @@
       <c r="C645">
         <v>1</v>
       </c>
-      <c r="D645">
-        <v>0</v>
-      </c>
     </row>
     <row r="646" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646">
@@ -14211,9 +13495,6 @@
       <c r="C646">
         <v>0</v>
       </c>
-      <c r="D646">
-        <v>0</v>
-      </c>
     </row>
     <row r="647" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647">
@@ -14223,9 +13504,6 @@
         <v>0</v>
       </c>
       <c r="C647">
-        <v>0</v>
-      </c>
-      <c r="D647">
         <v>0</v>
       </c>
     </row>
@@ -14242,10 +13520,7 @@
         <f>"0x"&amp;BIN2HEX(C647&amp;C646&amp;C645&amp;C644&amp;C643&amp;C642, 2)</f>
         <v>0x0F</v>
       </c>
-      <c r="D649" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D647&amp;D646&amp;D645&amp;D644&amp;D643&amp;D642, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D649" s="9"/>
       <c r="E649" s="9"/>
       <c r="F649" s="9"/>
       <c r="G649">
@@ -14254,7 +13529,7 @@
       </c>
       <c r="H649" s="1" t="str">
         <f t="shared" ref="H649" si="75">"'"&amp;CHAR(G649)&amp;"':bytearray("&amp;IF(A649&lt;&gt;"","[","")&amp;LOWER(IF(A649&lt;&gt;"",A649,"")&amp;IF(B649&lt;&gt;"",","&amp;B649,"")&amp;IF(C649&lt;&gt;"",","&amp;C649,"")&amp;IF(D649&lt;&gt;"",","&amp;D649,"")&amp;IF(E649&lt;&gt;"",","&amp;E649,"")&amp;IF(F649&lt;&gt;"",","&amp;F649,""))&amp;IF(A649&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'g':bytearray([0x16,0x1d,0x0f,0x00]),</v>
+        <v>'g':bytearray([0x16,0x1d,0x0f]),</v>
       </c>
     </row>
     <row r="651" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14267,9 +13542,6 @@
       <c r="C651">
         <v>0</v>
       </c>
-      <c r="D651">
-        <v>0</v>
-      </c>
     </row>
     <row r="652" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652">
@@ -14281,9 +13553,6 @@
       <c r="C652">
         <v>0</v>
       </c>
-      <c r="D652">
-        <v>0</v>
-      </c>
     </row>
     <row r="653" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653">
@@ -14295,9 +13564,6 @@
       <c r="C653">
         <v>0</v>
       </c>
-      <c r="D653">
-        <v>0</v>
-      </c>
     </row>
     <row r="654" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654">
@@ -14309,9 +13575,6 @@
       <c r="C654">
         <v>1</v>
       </c>
-      <c r="D654">
-        <v>0</v>
-      </c>
     </row>
     <row r="655" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655">
@@ -14323,9 +13586,6 @@
       <c r="C655">
         <v>1</v>
       </c>
-      <c r="D655">
-        <v>0</v>
-      </c>
     </row>
     <row r="656" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656">
@@ -14335,9 +13595,6 @@
         <v>0</v>
       </c>
       <c r="C656">
-        <v>0</v>
-      </c>
-      <c r="D656">
         <v>0</v>
       </c>
     </row>
@@ -14354,10 +13611,7 @@
         <f>"0x"&amp;BIN2HEX(C656&amp;C655&amp;C654&amp;C653&amp;C652&amp;C651, 2)</f>
         <v>0x18</v>
       </c>
-      <c r="D658" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D656&amp;D655&amp;D654&amp;D653&amp;D652&amp;D651, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D658" s="9"/>
       <c r="E658" s="9"/>
       <c r="F658" s="9"/>
       <c r="G658">
@@ -14366,7 +13620,7 @@
       </c>
       <c r="H658" s="1" t="str">
         <f t="shared" ref="H658" si="76">"'"&amp;CHAR(G658)&amp;"':bytearray("&amp;IF(A658&lt;&gt;"","[","")&amp;LOWER(IF(A658&lt;&gt;"",A658,"")&amp;IF(B658&lt;&gt;"",","&amp;B658,"")&amp;IF(C658&lt;&gt;"",","&amp;C658,"")&amp;IF(D658&lt;&gt;"",","&amp;D658,"")&amp;IF(E658&lt;&gt;"",","&amp;E658,"")&amp;IF(F658&lt;&gt;"",","&amp;F658,""))&amp;IF(A658&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'h':bytearray([0x1f,0x04,0x18,0x00]),</v>
+        <v>'h':bytearray([0x1f,0x04,0x18]),</v>
       </c>
     </row>
     <row r="660" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14376,9 +13630,6 @@
       <c r="B660">
         <v>1</v>
       </c>
-      <c r="C660">
-        <v>0</v>
-      </c>
     </row>
     <row r="661" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661">
@@ -14387,9 +13638,6 @@
       <c r="B661">
         <v>0</v>
       </c>
-      <c r="C661">
-        <v>0</v>
-      </c>
     </row>
     <row r="662" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662">
@@ -14398,9 +13646,6 @@
       <c r="B662">
         <v>1</v>
       </c>
-      <c r="C662">
-        <v>0</v>
-      </c>
     </row>
     <row r="663" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663">
@@ -14409,9 +13654,6 @@
       <c r="B663">
         <v>1</v>
       </c>
-      <c r="C663">
-        <v>0</v>
-      </c>
     </row>
     <row r="664" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664">
@@ -14420,18 +13662,12 @@
       <c r="B664">
         <v>0</v>
       </c>
-      <c r="C664">
-        <v>0</v>
-      </c>
     </row>
     <row r="665" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>0</v>
       </c>
       <c r="B665">
-        <v>0</v>
-      </c>
-      <c r="C665">
         <v>0</v>
       </c>
     </row>
@@ -14444,10 +13680,7 @@
         <f>"0x"&amp;BIN2HEX(B665&amp;B664&amp;B663&amp;B662&amp;B661&amp;B660, 2)</f>
         <v>0x0D</v>
       </c>
-      <c r="C667" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(C665&amp;C664&amp;C663&amp;C662&amp;C661&amp;C660, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="C667" s="9"/>
       <c r="D667" s="9"/>
       <c r="E667" s="9"/>
       <c r="F667" s="9"/>
@@ -14457,7 +13690,7 @@
       </c>
       <c r="H667" s="1" t="str">
         <f t="shared" ref="H667" si="77">"'"&amp;CHAR(G667)&amp;"':bytearray("&amp;IF(A667&lt;&gt;"","[","")&amp;LOWER(IF(A667&lt;&gt;"",A667,"")&amp;IF(B667&lt;&gt;"",","&amp;B667,"")&amp;IF(C667&lt;&gt;"",","&amp;C667,"")&amp;IF(D667&lt;&gt;"",","&amp;D667,"")&amp;IF(E667&lt;&gt;"",","&amp;E667,"")&amp;IF(F667&lt;&gt;"",","&amp;F667,""))&amp;IF(A667&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'i':bytearray([0x05,0x0d,0x00]),</v>
+        <v>'i':bytearray([0x05,0x0d]),</v>
       </c>
     </row>
     <row r="669" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14467,9 +13700,6 @@
       <c r="B669">
         <v>1</v>
       </c>
-      <c r="C669">
-        <v>0</v>
-      </c>
     </row>
     <row r="670" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670">
@@ -14478,9 +13708,6 @@
       <c r="B670">
         <v>0</v>
       </c>
-      <c r="C670">
-        <v>0</v>
-      </c>
     </row>
     <row r="671" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671">
@@ -14489,9 +13716,6 @@
       <c r="B671">
         <v>1</v>
       </c>
-      <c r="C671">
-        <v>0</v>
-      </c>
     </row>
     <row r="672" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672">
@@ -14500,9 +13724,6 @@
       <c r="B672">
         <v>1</v>
       </c>
-      <c r="C672">
-        <v>0</v>
-      </c>
     </row>
     <row r="673" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673">
@@ -14511,18 +13732,12 @@
       <c r="B673">
         <v>0</v>
       </c>
-      <c r="C673">
-        <v>0</v>
-      </c>
     </row>
     <row r="674" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>0</v>
       </c>
       <c r="B674">
-        <v>0</v>
-      </c>
-      <c r="C674">
         <v>0</v>
       </c>
     </row>
@@ -14535,10 +13750,7 @@
         <f>"0x"&amp;BIN2HEX(B674&amp;B673&amp;B672&amp;B671&amp;B670&amp;B669, 2)</f>
         <v>0x0D</v>
       </c>
-      <c r="C676" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(C674&amp;C673&amp;C672&amp;C671&amp;C670&amp;C669, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="C676" s="9"/>
       <c r="D676" s="9"/>
       <c r="E676" s="9"/>
       <c r="F676" s="9"/>
@@ -14548,7 +13760,7 @@
       </c>
       <c r="H676" s="1" t="str">
         <f t="shared" ref="H676" si="78">"'"&amp;CHAR(G676)&amp;"':bytearray("&amp;IF(A676&lt;&gt;"","[","")&amp;LOWER(IF(A676&lt;&gt;"",A676,"")&amp;IF(B676&lt;&gt;"",","&amp;B676,"")&amp;IF(C676&lt;&gt;"",","&amp;C676,"")&amp;IF(D676&lt;&gt;"",","&amp;D676,"")&amp;IF(E676&lt;&gt;"",","&amp;E676,"")&amp;IF(F676&lt;&gt;"",","&amp;F676,""))&amp;IF(A676&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'j':bytearray([0x11,0x0d,0x00]),</v>
+        <v>'j':bytearray([0x11,0x0d]),</v>
       </c>
     </row>
     <row r="678" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14561,9 +13773,6 @@
       <c r="C678">
         <v>0</v>
       </c>
-      <c r="D678">
-        <v>0</v>
-      </c>
     </row>
     <row r="679" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679">
@@ -14575,9 +13784,6 @@
       <c r="C679">
         <v>0</v>
       </c>
-      <c r="D679">
-        <v>0</v>
-      </c>
     </row>
     <row r="680" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680">
@@ -14589,9 +13795,6 @@
       <c r="C680">
         <v>1</v>
       </c>
-      <c r="D680">
-        <v>0</v>
-      </c>
     </row>
     <row r="681" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681">
@@ -14603,9 +13806,6 @@
       <c r="C681">
         <v>0</v>
       </c>
-      <c r="D681">
-        <v>0</v>
-      </c>
     </row>
     <row r="682" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682">
@@ -14617,9 +13817,6 @@
       <c r="C682">
         <v>1</v>
       </c>
-      <c r="D682">
-        <v>0</v>
-      </c>
     </row>
     <row r="683" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683">
@@ -14629,9 +13826,6 @@
         <v>0</v>
       </c>
       <c r="C683">
-        <v>0</v>
-      </c>
-      <c r="D683">
         <v>0</v>
       </c>
     </row>
@@ -14648,10 +13842,7 @@
         <f>"0x"&amp;BIN2HEX(C683&amp;C682&amp;C681&amp;C680&amp;C679&amp;C678, 2)</f>
         <v>0x14</v>
       </c>
-      <c r="D685" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D683&amp;D682&amp;D681&amp;D680&amp;D679&amp;D678, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D685" s="9"/>
       <c r="E685" s="9"/>
       <c r="F685" s="9"/>
       <c r="G685">
@@ -14660,54 +13851,36 @@
       </c>
       <c r="H685" s="1" t="str">
         <f t="shared" ref="H685" si="79">"'"&amp;CHAR(G685)&amp;"':bytearray("&amp;IF(A685&lt;&gt;"","[","")&amp;LOWER(IF(A685&lt;&gt;"",A685,"")&amp;IF(B685&lt;&gt;"",","&amp;B685,"")&amp;IF(C685&lt;&gt;"",","&amp;C685,"")&amp;IF(D685&lt;&gt;"",","&amp;D685,"")&amp;IF(E685&lt;&gt;"",","&amp;E685,"")&amp;IF(F685&lt;&gt;"",","&amp;F685,""))&amp;IF(A685&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'k':bytearray([0x1f,0x0c,0x14,0x00]),</v>
+        <v>'k':bytearray([0x1f,0x0c,0x14]),</v>
       </c>
     </row>
     <row r="687" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>1</v>
       </c>
-      <c r="B687">
-        <v>0</v>
-      </c>
     </row>
     <row r="688" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>1</v>
       </c>
-      <c r="B688">
-        <v>0</v>
-      </c>
     </row>
     <row r="689" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>1</v>
       </c>
-      <c r="B689">
-        <v>0</v>
-      </c>
     </row>
     <row r="690" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>1</v>
       </c>
-      <c r="B690">
-        <v>0</v>
-      </c>
     </row>
     <row r="691" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>1</v>
       </c>
-      <c r="B691">
-        <v>0</v>
-      </c>
     </row>
     <row r="692" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>0</v>
-      </c>
-      <c r="B692">
         <v>0</v>
       </c>
     </row>
@@ -14716,10 +13889,7 @@
         <f>"0x"&amp;BIN2HEX(A692&amp;A691&amp;A690&amp;A689&amp;A688&amp;A687, 2)</f>
         <v>0x1F</v>
       </c>
-      <c r="B694" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(B692&amp;B691&amp;B690&amp;B689&amp;B688&amp;B687, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="B694" s="9"/>
       <c r="C694" s="9"/>
       <c r="D694" s="9"/>
       <c r="E694" s="9"/>
@@ -14730,7 +13900,7 @@
       </c>
       <c r="H694" s="1" t="str">
         <f t="shared" ref="H694" si="80">"'"&amp;CHAR(G694)&amp;"':bytearray("&amp;IF(A694&lt;&gt;"","[","")&amp;LOWER(IF(A694&lt;&gt;"",A694,"")&amp;IF(B694&lt;&gt;"",","&amp;B694,"")&amp;IF(C694&lt;&gt;"",","&amp;C694,"")&amp;IF(D694&lt;&gt;"",","&amp;D694,"")&amp;IF(E694&lt;&gt;"",","&amp;E694,"")&amp;IF(F694&lt;&gt;"",","&amp;F694,""))&amp;IF(A694&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'l':bytearray([0x1f,0x00]),</v>
+        <v>'l':bytearray([0x1f]),</v>
       </c>
     </row>
     <row r="696" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14749,9 +13919,6 @@
       <c r="E696">
         <v>0</v>
       </c>
-      <c r="F696">
-        <v>0</v>
-      </c>
     </row>
     <row r="697" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697">
@@ -14769,9 +13936,6 @@
       <c r="E697">
         <v>0</v>
       </c>
-      <c r="F697">
-        <v>0</v>
-      </c>
     </row>
     <row r="698" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698">
@@ -14789,9 +13953,6 @@
       <c r="E698">
         <v>0</v>
       </c>
-      <c r="F698">
-        <v>0</v>
-      </c>
     </row>
     <row r="699" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699">
@@ -14809,9 +13970,6 @@
       <c r="E699">
         <v>1</v>
       </c>
-      <c r="F699">
-        <v>0</v>
-      </c>
     </row>
     <row r="700" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700">
@@ -14829,9 +13987,6 @@
       <c r="E700">
         <v>1</v>
       </c>
-      <c r="F700">
-        <v>0</v>
-      </c>
     </row>
     <row r="701" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701">
@@ -14849,13 +14004,10 @@
       <c r="E701">
         <v>0</v>
       </c>
-      <c r="F701">
-        <v>0</v>
-      </c>
     </row>
     <row r="703" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="9" t="str">
-        <f t="shared" ref="A703:F703" si="81">"0x"&amp;BIN2HEX(A701&amp;A700&amp;A699&amp;A698&amp;A697&amp;A696, 2)</f>
+        <f t="shared" ref="A703:E703" si="81">"0x"&amp;BIN2HEX(A701&amp;A700&amp;A699&amp;A698&amp;A697&amp;A696, 2)</f>
         <v>0x1C</v>
       </c>
       <c r="B703" s="9" t="str">
@@ -14874,17 +14026,14 @@
         <f t="shared" si="81"/>
         <v>0x18</v>
       </c>
-      <c r="F703" s="9" t="str">
-        <f t="shared" si="81"/>
-        <v>0x00</v>
-      </c>
+      <c r="F703" s="9"/>
       <c r="G703">
         <f>G694+1</f>
         <v>109</v>
       </c>
       <c r="H703" s="1" t="str">
         <f t="shared" ref="H703" si="82">"'"&amp;CHAR(G703)&amp;"':bytearray("&amp;IF(A703&lt;&gt;"","[","")&amp;LOWER(IF(A703&lt;&gt;"",A703,"")&amp;IF(B703&lt;&gt;"",","&amp;B703,"")&amp;IF(C703&lt;&gt;"",","&amp;C703,"")&amp;IF(D703&lt;&gt;"",","&amp;D703,"")&amp;IF(E703&lt;&gt;"",","&amp;E703,"")&amp;IF(F703&lt;&gt;"",","&amp;F703,""))&amp;IF(A703&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'m':bytearray([0x1c,0x04,0x18,0x04,0x18,0x00]),</v>
+        <v>'m':bytearray([0x1c,0x04,0x18,0x04,0x18]),</v>
       </c>
     </row>
     <row r="705" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14897,9 +14046,6 @@
       <c r="C705">
         <v>0</v>
       </c>
-      <c r="D705">
-        <v>0</v>
-      </c>
     </row>
     <row r="706" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706">
@@ -14911,9 +14057,6 @@
       <c r="C706">
         <v>0</v>
       </c>
-      <c r="D706">
-        <v>0</v>
-      </c>
     </row>
     <row r="707" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707">
@@ -14925,9 +14068,6 @@
       <c r="C707">
         <v>0</v>
       </c>
-      <c r="D707">
-        <v>0</v>
-      </c>
     </row>
     <row r="708" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708">
@@ -14939,9 +14079,6 @@
       <c r="C708">
         <v>1</v>
       </c>
-      <c r="D708">
-        <v>0</v>
-      </c>
     </row>
     <row r="709" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709">
@@ -14953,9 +14090,6 @@
       <c r="C709">
         <v>1</v>
       </c>
-      <c r="D709">
-        <v>0</v>
-      </c>
     </row>
     <row r="710" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710">
@@ -14965,9 +14099,6 @@
         <v>0</v>
       </c>
       <c r="C710">
-        <v>0</v>
-      </c>
-      <c r="D710">
         <v>0</v>
       </c>
     </row>
@@ -14984,10 +14115,7 @@
         <f>"0x"&amp;BIN2HEX(C710&amp;C709&amp;C708&amp;C707&amp;C706&amp;C705, 2)</f>
         <v>0x18</v>
       </c>
-      <c r="D712" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D710&amp;D709&amp;D708&amp;D707&amp;D706&amp;D705, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D712" s="9"/>
       <c r="E712" s="9"/>
       <c r="F712" s="9"/>
       <c r="G712">
@@ -14996,7 +14124,7 @@
       </c>
       <c r="H712" s="1" t="str">
         <f t="shared" ref="H712" si="83">"'"&amp;CHAR(G712)&amp;"':bytearray("&amp;IF(A712&lt;&gt;"","[","")&amp;LOWER(IF(A712&lt;&gt;"",A712,"")&amp;IF(B712&lt;&gt;"",","&amp;B712,"")&amp;IF(C712&lt;&gt;"",","&amp;C712,"")&amp;IF(D712&lt;&gt;"",","&amp;D712,"")&amp;IF(E712&lt;&gt;"",","&amp;E712,"")&amp;IF(F712&lt;&gt;"",","&amp;F712,""))&amp;IF(A712&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'n':bytearray([0x1c,0x04,0x18,0x00]),</v>
+        <v>'n':bytearray([0x1c,0x04,0x18]),</v>
       </c>
     </row>
     <row r="714" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15009,9 +14137,6 @@
       <c r="C714">
         <v>0</v>
       </c>
-      <c r="D714">
-        <v>0</v>
-      </c>
     </row>
     <row r="715" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715">
@@ -15023,9 +14148,6 @@
       <c r="C715">
         <v>0</v>
       </c>
-      <c r="D715">
-        <v>0</v>
-      </c>
     </row>
     <row r="716" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716">
@@ -15037,9 +14159,6 @@
       <c r="C716">
         <v>0</v>
       </c>
-      <c r="D716">
-        <v>0</v>
-      </c>
     </row>
     <row r="717" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717">
@@ -15051,9 +14170,6 @@
       <c r="C717">
         <v>1</v>
       </c>
-      <c r="D717">
-        <v>0</v>
-      </c>
     </row>
     <row r="718" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718">
@@ -15065,9 +14181,6 @@
       <c r="C718">
         <v>0</v>
       </c>
-      <c r="D718">
-        <v>0</v>
-      </c>
     </row>
     <row r="719" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719">
@@ -15077,9 +14190,6 @@
         <v>0</v>
       </c>
       <c r="C719">
-        <v>0</v>
-      </c>
-      <c r="D719">
         <v>0</v>
       </c>
     </row>
@@ -15096,10 +14206,7 @@
         <f>"0x"&amp;BIN2HEX(C719&amp;C718&amp;C717&amp;C716&amp;C715&amp;C714, 2)</f>
         <v>0x08</v>
       </c>
-      <c r="D721" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D719&amp;D718&amp;D717&amp;D716&amp;D715&amp;D714, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D721" s="9"/>
       <c r="E721" s="9"/>
       <c r="F721" s="9"/>
       <c r="G721">
@@ -15108,7 +14215,7 @@
       </c>
       <c r="H721" s="1" t="str">
         <f t="shared" ref="H721" si="84">"'"&amp;CHAR(G721)&amp;"':bytearray("&amp;IF(A721&lt;&gt;"","[","")&amp;LOWER(IF(A721&lt;&gt;"",A721,"")&amp;IF(B721&lt;&gt;"",","&amp;B721,"")&amp;IF(C721&lt;&gt;"",","&amp;C721,"")&amp;IF(D721&lt;&gt;"",","&amp;D721,"")&amp;IF(E721&lt;&gt;"",","&amp;E721,"")&amp;IF(F721&lt;&gt;"",","&amp;F721,""))&amp;IF(A721&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'o':bytearray([0x08,0x14,0x08,0x00]),</v>
+        <v>'o':bytearray([0x08,0x14,0x08]),</v>
       </c>
     </row>
     <row r="723" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15121,9 +14228,6 @@
       <c r="C723">
         <v>0</v>
       </c>
-      <c r="D723">
-        <v>0</v>
-      </c>
     </row>
     <row r="724" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724">
@@ -15135,9 +14239,6 @@
       <c r="C724">
         <v>1</v>
       </c>
-      <c r="D724">
-        <v>0</v>
-      </c>
     </row>
     <row r="725" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725">
@@ -15149,9 +14250,6 @@
       <c r="C725">
         <v>1</v>
       </c>
-      <c r="D725">
-        <v>0</v>
-      </c>
     </row>
     <row r="726" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726">
@@ -15163,9 +14261,6 @@
       <c r="C726">
         <v>0</v>
       </c>
-      <c r="D726">
-        <v>0</v>
-      </c>
     </row>
     <row r="727" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727">
@@ -15177,9 +14272,6 @@
       <c r="C727">
         <v>0</v>
       </c>
-      <c r="D727">
-        <v>0</v>
-      </c>
     </row>
     <row r="728" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728">
@@ -15189,9 +14281,6 @@
         <v>0</v>
       </c>
       <c r="C728">
-        <v>0</v>
-      </c>
-      <c r="D728">
         <v>0</v>
       </c>
     </row>
@@ -15208,10 +14297,7 @@
         <f>"0x"&amp;BIN2HEX(C728&amp;C727&amp;C726&amp;C725&amp;C724&amp;C723, 2)</f>
         <v>0x06</v>
       </c>
-      <c r="D730" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D728&amp;D727&amp;D726&amp;D725&amp;D724&amp;D723, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D730" s="9"/>
       <c r="E730" s="9"/>
       <c r="F730" s="9"/>
       <c r="G730">
@@ -15220,7 +14306,7 @@
       </c>
       <c r="H730" s="1" t="str">
         <f t="shared" ref="H730" si="85">"'"&amp;CHAR(G730)&amp;"':bytearray("&amp;IF(A730&lt;&gt;"","[","")&amp;LOWER(IF(A730&lt;&gt;"",A730,"")&amp;IF(B730&lt;&gt;"",","&amp;B730,"")&amp;IF(C730&lt;&gt;"",","&amp;C730,"")&amp;IF(D730&lt;&gt;"",","&amp;D730,"")&amp;IF(E730&lt;&gt;"",","&amp;E730,"")&amp;IF(F730&lt;&gt;"",","&amp;F730,""))&amp;IF(A730&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'p':bytearray([0x3e,0x0a,0x06,0x00]),</v>
+        <v>'p':bytearray([0x3e,0x0a,0x06]),</v>
       </c>
     </row>
     <row r="732" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15236,9 +14322,6 @@
       <c r="D732">
         <v>0</v>
       </c>
-      <c r="E732">
-        <v>0</v>
-      </c>
     </row>
     <row r="733" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733">
@@ -15253,9 +14336,6 @@
       <c r="D733">
         <v>0</v>
       </c>
-      <c r="E733">
-        <v>0</v>
-      </c>
     </row>
     <row r="734" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734">
@@ -15270,9 +14350,6 @@
       <c r="D734">
         <v>0</v>
       </c>
-      <c r="E734">
-        <v>0</v>
-      </c>
     </row>
     <row r="735" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735">
@@ -15287,9 +14364,6 @@
       <c r="D735">
         <v>0</v>
       </c>
-      <c r="E735">
-        <v>0</v>
-      </c>
     </row>
     <row r="736" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736">
@@ -15304,9 +14378,6 @@
       <c r="D736">
         <v>1</v>
       </c>
-      <c r="E736">
-        <v>0</v>
-      </c>
     </row>
     <row r="737" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737">
@@ -15319,9 +14390,6 @@
         <v>1</v>
       </c>
       <c r="D737">
-        <v>0</v>
-      </c>
-      <c r="E737">
         <v>0</v>
       </c>
     </row>
@@ -15342,10 +14410,7 @@
         <f>"0x"&amp;BIN2HEX(D737&amp;D736&amp;D735&amp;D734&amp;D733&amp;D732, 2)</f>
         <v>0x10</v>
       </c>
-      <c r="E739" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E737&amp;E736&amp;E735&amp;E734&amp;E733&amp;E732, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E739" s="9"/>
       <c r="F739" s="9"/>
       <c r="G739">
         <f>G730+1</f>
@@ -15353,7 +14418,7 @@
       </c>
       <c r="H739" s="1" t="str">
         <f t="shared" ref="H739" si="86">"'"&amp;CHAR(G739)&amp;"':bytearray("&amp;IF(A739&lt;&gt;"","[","")&amp;LOWER(IF(A739&lt;&gt;"",A739,"")&amp;IF(B739&lt;&gt;"",","&amp;B739,"")&amp;IF(C739&lt;&gt;"",","&amp;C739,"")&amp;IF(D739&lt;&gt;"",","&amp;D739,"")&amp;IF(E739&lt;&gt;"",","&amp;E739,"")&amp;IF(F739&lt;&gt;"",","&amp;F739,""))&amp;IF(A739&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'q':bytearray([0x0c,0x0a,0x3e,0x10,0x00]),</v>
+        <v>'q':bytearray([0x0c,0x0a,0x3e,0x10]),</v>
       </c>
     </row>
     <row r="741" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15366,9 +14431,6 @@
       <c r="C741">
         <v>0</v>
       </c>
-      <c r="D741">
-        <v>0</v>
-      </c>
     </row>
     <row r="742" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742">
@@ -15380,9 +14442,6 @@
       <c r="C742">
         <v>0</v>
       </c>
-      <c r="D742">
-        <v>0</v>
-      </c>
     </row>
     <row r="743" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743">
@@ -15394,9 +14453,6 @@
       <c r="C743">
         <v>1</v>
       </c>
-      <c r="D743">
-        <v>0</v>
-      </c>
     </row>
     <row r="744" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744">
@@ -15408,9 +14464,6 @@
       <c r="C744">
         <v>0</v>
       </c>
-      <c r="D744">
-        <v>0</v>
-      </c>
     </row>
     <row r="745" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745">
@@ -15422,9 +14475,6 @@
       <c r="C745">
         <v>0</v>
       </c>
-      <c r="D745">
-        <v>0</v>
-      </c>
     </row>
     <row r="746" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746">
@@ -15434,9 +14484,6 @@
         <v>0</v>
       </c>
       <c r="C746">
-        <v>0</v>
-      </c>
-      <c r="D746">
         <v>0</v>
       </c>
     </row>
@@ -15453,10 +14500,7 @@
         <f>"0x"&amp;BIN2HEX(C746&amp;C745&amp;C744&amp;C743&amp;C742&amp;C741, 2)</f>
         <v>0x04</v>
       </c>
-      <c r="D748" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D746&amp;D745&amp;D744&amp;D743&amp;D742&amp;D741, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D748" s="9"/>
       <c r="E748" s="9"/>
       <c r="F748" s="9"/>
       <c r="G748">
@@ -15465,7 +14509,7 @@
       </c>
       <c r="H748" s="1" t="str">
         <f t="shared" ref="H748" si="87">"'"&amp;CHAR(G748)&amp;"':bytearray("&amp;IF(A748&lt;&gt;"","[","")&amp;LOWER(IF(A748&lt;&gt;"",A748,"")&amp;IF(B748&lt;&gt;"",","&amp;B748,"")&amp;IF(C748&lt;&gt;"",","&amp;C748,"")&amp;IF(D748&lt;&gt;"",","&amp;D748,"")&amp;IF(E748&lt;&gt;"",","&amp;E748,"")&amp;IF(F748&lt;&gt;"",","&amp;F748,""))&amp;IF(A748&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'r':bytearray([0x1c,0x04,0x04,0x00]),</v>
+        <v>'r':bytearray([0x1c,0x04,0x04]),</v>
       </c>
     </row>
     <row r="750" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15478,9 +14522,6 @@
       <c r="C750">
         <v>0</v>
       </c>
-      <c r="D750">
-        <v>0</v>
-      </c>
     </row>
     <row r="751" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751">
@@ -15492,9 +14533,6 @@
       <c r="C751">
         <v>1</v>
       </c>
-      <c r="D751">
-        <v>0</v>
-      </c>
     </row>
     <row r="752" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752">
@@ -15506,9 +14544,6 @@
       <c r="C752">
         <v>0</v>
       </c>
-      <c r="D752">
-        <v>0</v>
-      </c>
     </row>
     <row r="753" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753">
@@ -15520,9 +14555,6 @@
       <c r="C753">
         <v>1</v>
       </c>
-      <c r="D753">
-        <v>0</v>
-      </c>
     </row>
     <row r="754" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754">
@@ -15534,9 +14566,6 @@
       <c r="C754">
         <v>0</v>
       </c>
-      <c r="D754">
-        <v>0</v>
-      </c>
     </row>
     <row r="755" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755">
@@ -15546,9 +14575,6 @@
         <v>0</v>
       </c>
       <c r="C755">
-        <v>0</v>
-      </c>
-      <c r="D755">
         <v>0</v>
       </c>
     </row>
@@ -15565,10 +14591,7 @@
         <f>"0x"&amp;BIN2HEX(C755&amp;C754&amp;C753&amp;C752&amp;C751&amp;C750, 2)</f>
         <v>0x0A</v>
       </c>
-      <c r="D757" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D755&amp;D754&amp;D753&amp;D752&amp;D751&amp;D750, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D757" s="9"/>
       <c r="E757" s="9"/>
       <c r="F757" s="9"/>
       <c r="G757">
@@ -15577,7 +14600,7 @@
       </c>
       <c r="H757" s="1" t="str">
         <f t="shared" ref="H757" si="88">"'"&amp;CHAR(G757)&amp;"':bytearray("&amp;IF(A757&lt;&gt;"","[","")&amp;LOWER(IF(A757&lt;&gt;"",A757,"")&amp;IF(B757&lt;&gt;"",","&amp;B757,"")&amp;IF(C757&lt;&gt;"",","&amp;C757,"")&amp;IF(D757&lt;&gt;"",","&amp;D757,"")&amp;IF(E757&lt;&gt;"",","&amp;E757,"")&amp;IF(F757&lt;&gt;"",","&amp;F757,""))&amp;IF(A757&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'s':bytearray([0x14,0x12,0x0a,0x00]),</v>
+        <v>'s':bytearray([0x14,0x12,0x0a]),</v>
       </c>
     </row>
     <row r="759" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15585,41 +14608,32 @@
         <v>0</v>
       </c>
       <c r="B759">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C759">
-        <v>0</v>
-      </c>
-      <c r="D759">
         <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B760">
         <v>1</v>
       </c>
       <c r="C760">
-        <v>1</v>
-      </c>
-      <c r="D760">
         <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B761">
         <v>1</v>
       </c>
       <c r="C761">
-        <v>0</v>
-      </c>
-      <c r="D761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15632,21 +14646,15 @@
       <c r="C762">
         <v>0</v>
       </c>
-      <c r="D762">
-        <v>0</v>
-      </c>
     </row>
     <row r="763" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>0</v>
       </c>
       <c r="B763">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C763">
-        <v>0</v>
-      </c>
-      <c r="D763">
         <v>0</v>
       </c>
     </row>
@@ -15658,29 +14666,23 @@
         <v>0</v>
       </c>
       <c r="C764">
-        <v>0</v>
-      </c>
-      <c r="D764">
         <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="9" t="str">
         <f>"0x"&amp;BIN2HEX(A764&amp;A763&amp;A762&amp;A761&amp;A760&amp;A759, 2)</f>
-        <v>0x02</v>
+        <v>0x04</v>
       </c>
       <c r="B766" s="9" t="str">
         <f>"0x"&amp;BIN2HEX(B764&amp;B763&amp;B762&amp;B761&amp;B760&amp;B759, 2)</f>
-        <v>0x0F</v>
+        <v>0x1E</v>
       </c>
       <c r="C766" s="9" t="str">
         <f>"0x"&amp;BIN2HEX(C764&amp;C763&amp;C762&amp;C761&amp;C760&amp;C759, 2)</f>
-        <v>0x02</v>
-      </c>
-      <c r="D766" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D764&amp;D763&amp;D762&amp;D761&amp;D760&amp;D759, 2)</f>
-        <v>0x00</v>
-      </c>
+        <v>0x04</v>
+      </c>
+      <c r="D766" s="9"/>
       <c r="E766" s="9"/>
       <c r="F766" s="9"/>
       <c r="G766">
@@ -15689,7 +14691,7 @@
       </c>
       <c r="H766" s="1" t="str">
         <f t="shared" ref="H766" si="89">"'"&amp;CHAR(G766)&amp;"':bytearray("&amp;IF(A766&lt;&gt;"","[","")&amp;LOWER(IF(A766&lt;&gt;"",A766,"")&amp;IF(B766&lt;&gt;"",","&amp;B766,"")&amp;IF(C766&lt;&gt;"",","&amp;C766,"")&amp;IF(D766&lt;&gt;"",","&amp;D766,"")&amp;IF(E766&lt;&gt;"",","&amp;E766,"")&amp;IF(F766&lt;&gt;"",","&amp;F766,""))&amp;IF(A766&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'t':bytearray([0x02,0x0f,0x02,0x00]),</v>
+        <v>'t':bytearray([0x04,0x1e,0x04]),</v>
       </c>
     </row>
     <row r="768" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15702,9 +14704,6 @@
       <c r="C768">
         <v>0</v>
       </c>
-      <c r="D768">
-        <v>0</v>
-      </c>
     </row>
     <row r="769" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769">
@@ -15716,9 +14715,6 @@
       <c r="C769">
         <v>0</v>
       </c>
-      <c r="D769">
-        <v>0</v>
-      </c>
     </row>
     <row r="770" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770">
@@ -15730,9 +14726,6 @@
       <c r="C770">
         <v>1</v>
       </c>
-      <c r="D770">
-        <v>0</v>
-      </c>
     </row>
     <row r="771" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771">
@@ -15744,9 +14737,6 @@
       <c r="C771">
         <v>1</v>
       </c>
-      <c r="D771">
-        <v>0</v>
-      </c>
     </row>
     <row r="772" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772">
@@ -15758,9 +14748,6 @@
       <c r="C772">
         <v>1</v>
       </c>
-      <c r="D772">
-        <v>0</v>
-      </c>
     </row>
     <row r="773" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773">
@@ -15770,9 +14757,6 @@
         <v>0</v>
       </c>
       <c r="C773">
-        <v>0</v>
-      </c>
-      <c r="D773">
         <v>0</v>
       </c>
     </row>
@@ -15789,10 +14773,7 @@
         <f>"0x"&amp;BIN2HEX(C773&amp;C772&amp;C771&amp;C770&amp;C769&amp;C768, 2)</f>
         <v>0x1C</v>
       </c>
-      <c r="D775" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D773&amp;D772&amp;D771&amp;D770&amp;D769&amp;D768, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D775" s="9"/>
       <c r="E775" s="9"/>
       <c r="F775" s="9"/>
       <c r="G775">
@@ -15801,7 +14782,7 @@
       </c>
       <c r="H775" s="1" t="str">
         <f t="shared" ref="H775" si="90">"'"&amp;CHAR(G775)&amp;"':bytearray("&amp;IF(A775&lt;&gt;"","[","")&amp;LOWER(IF(A775&lt;&gt;"",A775,"")&amp;IF(B775&lt;&gt;"",","&amp;B775,"")&amp;IF(C775&lt;&gt;"",","&amp;C775,"")&amp;IF(D775&lt;&gt;"",","&amp;D775,"")&amp;IF(E775&lt;&gt;"",","&amp;E775,"")&amp;IF(F775&lt;&gt;"",","&amp;F775,""))&amp;IF(A775&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'u':bytearray([0x0c,0x10,0x1c,0x00]),</v>
+        <v>'u':bytearray([0x0c,0x10,0x1c]),</v>
       </c>
     </row>
     <row r="777" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15814,9 +14795,6 @@
       <c r="C777">
         <v>0</v>
       </c>
-      <c r="D777">
-        <v>0</v>
-      </c>
     </row>
     <row r="778" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778">
@@ -15828,9 +14806,6 @@
       <c r="C778">
         <v>0</v>
       </c>
-      <c r="D778">
-        <v>0</v>
-      </c>
     </row>
     <row r="779" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779">
@@ -15842,9 +14817,6 @@
       <c r="C779">
         <v>1</v>
       </c>
-      <c r="D779">
-        <v>0</v>
-      </c>
     </row>
     <row r="780" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780">
@@ -15856,9 +14828,6 @@
       <c r="C780">
         <v>1</v>
       </c>
-      <c r="D780">
-        <v>0</v>
-      </c>
     </row>
     <row r="781" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781">
@@ -15870,9 +14839,6 @@
       <c r="C781">
         <v>0</v>
       </c>
-      <c r="D781">
-        <v>0</v>
-      </c>
     </row>
     <row r="782" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782">
@@ -15882,9 +14848,6 @@
         <v>0</v>
       </c>
       <c r="C782">
-        <v>0</v>
-      </c>
-      <c r="D782">
         <v>0</v>
       </c>
     </row>
@@ -15901,10 +14864,7 @@
         <f>"0x"&amp;BIN2HEX(C782&amp;C781&amp;C780&amp;C779&amp;C778&amp;C777, 2)</f>
         <v>0x0C</v>
       </c>
-      <c r="D784" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D782&amp;D781&amp;D780&amp;D779&amp;D778&amp;D777, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D784" s="9"/>
       <c r="E784" s="9"/>
       <c r="F784" s="9"/>
       <c r="G784">
@@ -15913,7 +14873,7 @@
       </c>
       <c r="H784" s="1" t="str">
         <f t="shared" ref="H784" si="91">"'"&amp;CHAR(G784)&amp;"':bytearray("&amp;IF(A784&lt;&gt;"","[","")&amp;LOWER(IF(A784&lt;&gt;"",A784,"")&amp;IF(B784&lt;&gt;"",","&amp;B784,"")&amp;IF(C784&lt;&gt;"",","&amp;C784,"")&amp;IF(D784&lt;&gt;"",","&amp;D784,"")&amp;IF(E784&lt;&gt;"",","&amp;E784,"")&amp;IF(F784&lt;&gt;"",","&amp;F784,""))&amp;IF(A784&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'v':bytearray([0x1c,0x10,0x0c,0x00]),</v>
+        <v>'v':bytearray([0x1c,0x10,0x0c]),</v>
       </c>
     </row>
     <row r="786" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15932,9 +14892,6 @@
       <c r="E786">
         <v>0</v>
       </c>
-      <c r="F786">
-        <v>0</v>
-      </c>
     </row>
     <row r="787" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787">
@@ -15952,9 +14909,6 @@
       <c r="E787">
         <v>0</v>
       </c>
-      <c r="F787">
-        <v>0</v>
-      </c>
     </row>
     <row r="788" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788">
@@ -15972,9 +14926,6 @@
       <c r="E788">
         <v>1</v>
       </c>
-      <c r="F788">
-        <v>0</v>
-      </c>
     </row>
     <row r="789" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789">
@@ -15992,9 +14943,6 @@
       <c r="E789">
         <v>1</v>
       </c>
-      <c r="F789">
-        <v>0</v>
-      </c>
     </row>
     <row r="790" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790">
@@ -16012,9 +14960,6 @@
       <c r="E790">
         <v>0</v>
       </c>
-      <c r="F790">
-        <v>0</v>
-      </c>
     </row>
     <row r="791" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791">
@@ -16032,13 +14977,10 @@
       <c r="E791">
         <v>0</v>
       </c>
-      <c r="F791">
-        <v>0</v>
-      </c>
     </row>
     <row r="793" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="9" t="str">
-        <f t="shared" ref="A793:F793" si="92">"0x"&amp;BIN2HEX(A791&amp;A790&amp;A789&amp;A788&amp;A787&amp;A786, 2)</f>
+        <f t="shared" ref="A793:E793" si="92">"0x"&amp;BIN2HEX(A791&amp;A790&amp;A789&amp;A788&amp;A787&amp;A786, 2)</f>
         <v>0x1C</v>
       </c>
       <c r="B793" s="9" t="str">
@@ -16057,17 +14999,14 @@
         <f t="shared" si="92"/>
         <v>0x0C</v>
       </c>
-      <c r="F793" s="9" t="str">
-        <f t="shared" si="92"/>
-        <v>0x00</v>
-      </c>
+      <c r="F793" s="9"/>
       <c r="G793">
         <f>G784+1</f>
         <v>119</v>
       </c>
       <c r="H793" s="1" t="str">
         <f t="shared" ref="H793" si="93">"'"&amp;CHAR(G793)&amp;"':bytearray("&amp;IF(A793&lt;&gt;"","[","")&amp;LOWER(IF(A793&lt;&gt;"",A793,"")&amp;IF(B793&lt;&gt;"",","&amp;B793,"")&amp;IF(C793&lt;&gt;"",","&amp;C793,"")&amp;IF(D793&lt;&gt;"",","&amp;D793,"")&amp;IF(E793&lt;&gt;"",","&amp;E793,"")&amp;IF(F793&lt;&gt;"",","&amp;F793,""))&amp;IF(A793&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'w':bytearray([0x1c,0x10,0x0c,0x10,0x0c,0x00]),</v>
+        <v>'w':bytearray([0x1c,0x10,0x0c,0x10,0x0c]),</v>
       </c>
     </row>
     <row r="795" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16083,9 +15022,6 @@
       <c r="D795">
         <v>0</v>
       </c>
-      <c r="E795">
-        <v>0</v>
-      </c>
     </row>
     <row r="796" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796">
@@ -16100,9 +15036,6 @@
       <c r="D796">
         <v>0</v>
       </c>
-      <c r="E796">
-        <v>0</v>
-      </c>
     </row>
     <row r="797" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797">
@@ -16117,9 +15050,6 @@
       <c r="D797">
         <v>1</v>
       </c>
-      <c r="E797">
-        <v>0</v>
-      </c>
     </row>
     <row r="798" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798">
@@ -16134,9 +15064,6 @@
       <c r="D798">
         <v>0</v>
       </c>
-      <c r="E798">
-        <v>0</v>
-      </c>
     </row>
     <row r="799" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799">
@@ -16151,9 +15078,6 @@
       <c r="D799">
         <v>0</v>
       </c>
-      <c r="E799">
-        <v>0</v>
-      </c>
     </row>
     <row r="800" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800">
@@ -16166,9 +15090,6 @@
         <v>0</v>
       </c>
       <c r="D800">
-        <v>0</v>
-      </c>
-      <c r="E800">
         <v>0</v>
       </c>
     </row>
@@ -16189,10 +15110,7 @@
         <f>"0x"&amp;BIN2HEX(D800&amp;D799&amp;D798&amp;D797&amp;D796&amp;D795, 2)</f>
         <v>0x04</v>
       </c>
-      <c r="E802" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(E800&amp;E799&amp;E798&amp;E797&amp;E796&amp;E795, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="E802" s="9"/>
       <c r="F802" s="9"/>
       <c r="G802">
         <f>G793+1</f>
@@ -16200,7 +15118,7 @@
       </c>
       <c r="H802" s="1" t="str">
         <f t="shared" ref="H802" si="94">"'"&amp;CHAR(G802)&amp;"':bytearray("&amp;IF(A802&lt;&gt;"","[","")&amp;LOWER(IF(A802&lt;&gt;"",A802,"")&amp;IF(B802&lt;&gt;"",","&amp;B802,"")&amp;IF(C802&lt;&gt;"",","&amp;C802,"")&amp;IF(D802&lt;&gt;"",","&amp;D802,"")&amp;IF(E802&lt;&gt;"",","&amp;E802,"")&amp;IF(F802&lt;&gt;"",","&amp;F802,""))&amp;IF(A802&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'x':bytearray([0x10,0x0c,0x18,0x04,0x00]),</v>
+        <v>'x':bytearray([0x10,0x0c,0x18,0x04]),</v>
       </c>
     </row>
     <row r="804" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16213,9 +15131,6 @@
       <c r="C804">
         <v>0</v>
       </c>
-      <c r="D804">
-        <v>0</v>
-      </c>
     </row>
     <row r="805" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805">
@@ -16227,9 +15142,6 @@
       <c r="C805">
         <v>1</v>
       </c>
-      <c r="D805">
-        <v>0</v>
-      </c>
     </row>
     <row r="806" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806">
@@ -16241,9 +15153,6 @@
       <c r="C806">
         <v>1</v>
       </c>
-      <c r="D806">
-        <v>0</v>
-      </c>
     </row>
     <row r="807" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807">
@@ -16255,9 +15164,6 @@
       <c r="C807">
         <v>1</v>
       </c>
-      <c r="D807">
-        <v>0</v>
-      </c>
     </row>
     <row r="808" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808">
@@ -16269,9 +15175,6 @@
       <c r="C808">
         <v>0</v>
       </c>
-      <c r="D808">
-        <v>0</v>
-      </c>
     </row>
     <row r="809" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809">
@@ -16281,9 +15184,6 @@
         <v>0</v>
       </c>
       <c r="C809">
-        <v>0</v>
-      </c>
-      <c r="D809">
         <v>0</v>
       </c>
     </row>
@@ -16300,10 +15200,7 @@
         <f>"0x"&amp;BIN2HEX(C809&amp;C808&amp;C807&amp;C806&amp;C805&amp;C804, 2)</f>
         <v>0x0E</v>
       </c>
-      <c r="D811" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D809&amp;D808&amp;D807&amp;D806&amp;D805&amp;D804, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D811" s="9"/>
       <c r="E811" s="9"/>
       <c r="F811" s="9"/>
       <c r="G811">
@@ -16312,7 +15209,7 @@
       </c>
       <c r="H811" s="1" t="str">
         <f t="shared" ref="H811" si="95">"'"&amp;CHAR(G811)&amp;"':bytearray("&amp;IF(A811&lt;&gt;"","[","")&amp;LOWER(IF(A811&lt;&gt;"",A811,"")&amp;IF(B811&lt;&gt;"",","&amp;B811,"")&amp;IF(C811&lt;&gt;"",","&amp;C811,"")&amp;IF(D811&lt;&gt;"",","&amp;D811,"")&amp;IF(E811&lt;&gt;"",","&amp;E811,"")&amp;IF(F811&lt;&gt;"",","&amp;F811,""))&amp;IF(A811&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'y':bytearray([0x12,0x14,0x0e,0x00]),</v>
+        <v>'y':bytearray([0x12,0x14,0x0e]),</v>
       </c>
     </row>
     <row r="813" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16325,9 +15222,6 @@
       <c r="C813">
         <v>0</v>
       </c>
-      <c r="D813">
-        <v>0</v>
-      </c>
     </row>
     <row r="814" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814">
@@ -16339,9 +15233,6 @@
       <c r="C814">
         <v>1</v>
       </c>
-      <c r="D814">
-        <v>0</v>
-      </c>
     </row>
     <row r="815" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815">
@@ -16353,9 +15244,6 @@
       <c r="C815">
         <v>0</v>
       </c>
-      <c r="D815">
-        <v>0</v>
-      </c>
     </row>
     <row r="816" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816">
@@ -16367,9 +15255,6 @@
       <c r="C816">
         <v>0</v>
       </c>
-      <c r="D816">
-        <v>0</v>
-      </c>
     </row>
     <row r="817" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817">
@@ -16381,9 +15266,6 @@
       <c r="C817">
         <v>1</v>
       </c>
-      <c r="D817">
-        <v>0</v>
-      </c>
     </row>
     <row r="818" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818">
@@ -16393,9 +15275,6 @@
         <v>0</v>
       </c>
       <c r="C818">
-        <v>0</v>
-      </c>
-      <c r="D818">
         <v>0</v>
       </c>
     </row>
@@ -16412,10 +15291,7 @@
         <f>"0x"&amp;BIN2HEX(C818&amp;C817&amp;C816&amp;C815&amp;C814&amp;C813, 2)</f>
         <v>0x12</v>
       </c>
-      <c r="D820" s="9" t="str">
-        <f>"0x"&amp;BIN2HEX(D818&amp;D817&amp;D816&amp;D815&amp;D814&amp;D813, 2)</f>
-        <v>0x00</v>
-      </c>
+      <c r="D820" s="9"/>
       <c r="E820" s="9"/>
       <c r="F820" s="9"/>
       <c r="G820">
@@ -16424,7 +15300,7 @@
       </c>
       <c r="H820" s="1" t="str">
         <f t="shared" ref="H820" si="96">"'"&amp;CHAR(G820)&amp;"':bytearray("&amp;IF(A820&lt;&gt;"","[","")&amp;LOWER(IF(A820&lt;&gt;"",A820,"")&amp;IF(B820&lt;&gt;"",","&amp;B820,"")&amp;IF(C820&lt;&gt;"",","&amp;C820,"")&amp;IF(D820&lt;&gt;"",","&amp;D820,"")&amp;IF(E820&lt;&gt;"",","&amp;E820,"")&amp;IF(F820&lt;&gt;"",","&amp;F820,""))&amp;IF(A820&lt;&gt;"","]","")&amp;"),"</f>
-        <v>'z':bytearray([0x1a,0x16,0x12,0x00]),</v>
+        <v>'z':bytearray([0x1a,0x16,0x12]),</v>
       </c>
     </row>
     <row r="822" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16517,7 +15393,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:F26 A39:F44 A48:F53 A57:F62 A138:F143 A156:F161 A165:F170 A192:F197 A201:F206 A219:F224 A282:F287 A534:F539 A561:F566 A570:F575 A588:F593 A597:F602 A651:F656 A669:F674 A678:F683 A759:F764 A741:F746 A543:F548 A552:F557 A579:F584 A606:F611 A615:F620 A624:F629 A642:F647 A633:F638 A687:F692 A705:F710 A714:F719 A723:F728 A750:F755 A768:F773 A777:F782 A804:F809 A813:F818 A822:F827 A840:F845 A831:F836 A849:F854 A30:F35 A75:F80 A84:F89 A66:F71 A102:F107 A93:F98 A120:F125 A147:F152 A174:F179 A183:F188 A210:F215 A228:F233 A237:F242 A255:F260 A264:F269 A273:F278 A291:F296 A3:F8 A12:F17 A111:F116 A129:F134 A246:F251 A300:F305 A309:F314 A318:F323 A327:F332 A336:F341 A345:F350 A354:F359 A363:F368 A372:F377 A390:F395 A399:F404 A408:F413 A417:F422 A426:F431 A435:F440 A453:F458 A462:F467 A480:F485 A489:F494 A498:F503 A516:F521 A525:F530 A381:F386 A444:F449 A471:F476 A507:F512 A660:F665 A696:F701 A732:F737 A786:F791 A795:F800">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16548,9 +15424,63 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="9" t="str">
+        <f>"0x"&amp;BIN2HEX(A8&amp;A7&amp;A6&amp;A5&amp;A4&amp;A3, 2)</f>
+        <v>0x00</v>
+      </c>
+      <c r="B10" s="9" t="str">
+        <f>"0x"&amp;BIN2HEX(B8&amp;B7&amp;B6&amp;B5&amp;B4&amp;B3, 2)</f>
+        <v>0x00</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -16560,7 +15490,7 @@
       </c>
       <c r="H10" s="1" t="str">
         <f>"'"&amp;CHAR(G10)&amp;"':bytearray("&amp;IF(A10&lt;&gt;"","[","")&amp;LOWER(IF(A10&lt;&gt;"",A10,"")&amp;IF(B10&lt;&gt;"",","&amp;B10,"")&amp;IF(C10&lt;&gt;"",","&amp;C10,"")&amp;IF(D10&lt;&gt;"",","&amp;D10,"")&amp;IF(E10&lt;&gt;"",","&amp;E10,"")&amp;IF(F10&lt;&gt;"",","&amp;F10,""))&amp;IF(A10&lt;&gt;"","]","")&amp;"),"</f>
-        <v>' ':bytearray(),</v>
+        <v>' ':bytearray([0x00,0x00]),</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -26503,12 +25433,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A21:F26 F57:F62 A138:F143 A156:F161 A165:F170 A192:F197 A201:F206 A219:F224 A282:F287 A300:F305 A309:F314 A318:F323 A327:F332 A336:F341 A345:F350 A354:F359 A363:F368 A372:F377 A381:F386 A390:F395 A399:F404 A417:F422 A426:F431 A435:F440 A444:F449 A408:F413 A453:F458 A462:F467 A471:F476 A480:F485 A489:F494 A525:F530 A498:F503 A507:F512 A516:F521 A534:F539 A561:F566 A570:F575 A588:F593 A597:F602 A651:F656 A660:F665 A669:F674 A678:F683 A759:F764 A741:F746 A543:F548 A552:F557 A579:F584 A606:F611 A615:F620 A624:F629 A642:F647 A633:F638 A687:F692 A696:F701 A705:F710 A714:F719 A723:F728 A732:F737 A750:F755 A768:F773 A777:F782 A795:F800 A804:F809 A813:F818 A822:F827 A786:F791 A840:F845 A831:F836 A849:F854 A12:F17 A30:F35 A75:F80 A84:F89 A66:F71 A102:F107 A93:F98 A120:F125 A111:F116 A129:F134 A147:F152 A174:F179 A183:F188 A210:F215 A228:F233 A237:F242 A246:F251 A255:F260 A264:F269 A273:F278 A291:F296 A3:F8 A48:F53 A39:F44">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="A21:F26 F57:F62 A138:F143 A156:F161 A165:F170 A192:F197 A201:F206 A219:F224 A282:F287 A300:F305 A309:F314 A318:F323 A327:F332 A336:F341 A345:F350 A354:F359 A363:F368 A372:F377 A381:F386 A390:F395 A399:F404 A417:F422 A426:F431 A435:F440 A444:F449 A408:F413 A453:F458 A462:F467 A471:F476 A480:F485 A489:F494 A525:F530 A498:F503 A507:F512 A516:F521 A534:F539 A561:F566 A570:F575 A588:F593 A597:F602 A651:F656 A660:F665 A669:F674 A678:F683 A759:F764 A741:F746 A543:F548 A552:F557 A579:F584 A606:F611 A615:F620 A624:F629 A642:F647 A633:F638 A687:F692 A696:F701 A705:F710 A714:F719 A723:F728 A732:F737 A750:F755 A768:F773 A777:F782 A795:F800 A804:F809 A813:F818 A822:F827 A786:F791 A840:F845 A831:F836 A849:F854 A12:F17 A30:F35 A75:F80 A84:F89 A66:F71 A102:F107 A93:F98 A120:F125 A111:F116 A129:F134 A147:F152 A174:F179 A183:F188 A210:F215 A228:F233 A237:F242 A246:F251 A255:F260 A264:F269 A273:F278 A291:F296 C3:F8 A48:F53 A39:F44">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:E62">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:B8">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
